--- a/src/Solution Files/Keyboard Designs.xlsx
+++ b/src/Solution Files/Keyboard Designs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="371">
   <si>
     <t>A</t>
   </si>
@@ -1110,9 +1110,6 @@
   </si>
   <si>
     <t>MORE:</t>
-  </si>
-  <si>
-    <t>SLEEP</t>
   </si>
   <si>
     <t>SETTINGS</t>
@@ -1132,6 +1129,12 @@
   <si>
     <t>PUBLISH ONLY
 F1 → ESC</t>
+  </si>
+  <si>
+    <t>SLP</t>
+  </si>
+  <si>
+    <t>RE-CALIBRATE</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1494,28 +1497,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1524,17 +1542,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1542,13 +1563,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1572,32 +1602,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1605,16 +1641,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1638,58 +1668,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1700,6 +1694,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5403,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75:M75"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="AC87" sqref="AC87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5421,44 +5430,44 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="31" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="31" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="31" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="31" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="29" t="s">
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="30"/>
+      <c r="W3" s="36"/>
       <c r="Z3" s="7" t="s">
         <v>40</v>
       </c>
@@ -5479,38 +5488,38 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U4" s="42"/>
-      <c r="V4" s="43" t="s">
+      <c r="U4" s="31"/>
+      <c r="V4" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="44"/>
+      <c r="W4" s="33"/>
       <c r="Z4" s="11" t="s">
         <v>39</v>
       </c>
@@ -5530,46 +5539,46 @@
       <c r="AT4" s="12"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23" t="s">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="29"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Z5" s="5" t="s">
@@ -5595,50 +5604,50 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="50" t="s">
+      <c r="U6" s="23"/>
+      <c r="V6" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="51"/>
+      <c r="W6" s="62"/>
       <c r="Z6" s="6" t="s">
         <v>90</v>
       </c>
@@ -5662,50 +5671,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="18" t="s">
         <v>105</v>
       </c>
       <c r="S7" s="18"/>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="49"/>
-      <c r="V7" s="48" t="s">
+      <c r="U7" s="73"/>
+      <c r="V7" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="49"/>
+      <c r="W7" s="73"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AH7" s="12"/>
@@ -5724,44 +5733,46 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50" t="s">
+      <c r="I8" s="62"/>
+      <c r="J8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="21" t="s">
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="52" t="s">
+      <c r="O8" s="62"/>
+      <c r="P8" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="48" t="s">
+      <c r="Q8" s="85"/>
+      <c r="R8" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="49"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W8" s="73"/>
       <c r="X8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -5821,44 +5832,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="31" t="s">
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="31" t="s">
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="31" t="s">
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="31" t="s">
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="29" t="s">
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="30"/>
+      <c r="W11" s="36"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AH11" s="12"/>
@@ -5879,38 +5890,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="43" t="s">
+      <c r="U12" s="31"/>
+      <c r="V12" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="33"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AH12" s="12"/>
@@ -5930,50 +5941,50 @@
       <c r="AV12" s="12"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="70">
+      <c r="B13" s="39">
         <v>1</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="70">
+      <c r="C13" s="40"/>
+      <c r="D13" s="39">
         <v>2</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="23">
+      <c r="E13" s="40"/>
+      <c r="F13" s="28">
         <v>3</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="72">
+      <c r="G13" s="29"/>
+      <c r="H13" s="41">
         <v>4</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="23">
+      <c r="I13" s="42"/>
+      <c r="J13" s="28">
         <v>5</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="23">
+      <c r="K13" s="29"/>
+      <c r="L13" s="28">
         <v>6</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23">
+      <c r="M13" s="29"/>
+      <c r="N13" s="28">
         <v>7</v>
       </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="23">
+      <c r="O13" s="29"/>
+      <c r="P13" s="28">
         <v>8</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="23">
+      <c r="Q13" s="29"/>
+      <c r="R13" s="28">
         <v>9</v>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="23">
+      <c r="S13" s="29"/>
+      <c r="T13" s="28">
         <v>0</v>
       </c>
-      <c r="U13" s="24"/>
-      <c r="V13" s="22" t="s">
+      <c r="U13" s="29"/>
+      <c r="V13" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="W13" s="22"/>
+      <c r="W13" s="23"/>
       <c r="X13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -5996,50 +6007,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="62" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56" t="s">
+      <c r="I14" s="65"/>
+      <c r="J14" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56" t="s">
+      <c r="K14" s="65"/>
+      <c r="L14" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57" t="s">
+      <c r="M14" s="65"/>
+      <c r="N14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="58"/>
-      <c r="P14" s="57" t="s">
+      <c r="O14" s="67"/>
+      <c r="P14" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="57" t="s">
+      <c r="Q14" s="67"/>
+      <c r="R14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="58"/>
-      <c r="T14" s="57" t="s">
+      <c r="S14" s="67"/>
+      <c r="T14" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="58"/>
-      <c r="V14" s="59" t="s">
+      <c r="U14" s="67"/>
+      <c r="V14" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="68"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AH14" s="12"/>
@@ -6061,38 +6072,38 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="55" t="s">
+      <c r="I15" s="23"/>
+      <c r="J15" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="55" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="55" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22" t="s">
+      <c r="O15" s="23"/>
+      <c r="P15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="18" t="s">
         <v>105</v>
       </c>
@@ -6108,8 +6119,8 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
@@ -6131,44 +6142,46 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21" t="s">
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="15" t="s">
+      <c r="O16" s="62"/>
+      <c r="P16" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75" t="s">
+      <c r="Q16" s="51"/>
+      <c r="R16" s="72" t="s">
         <v>31</v>
       </c>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
       <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="18"/>
+      <c r="V16" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W16" s="73"/>
       <c r="X16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -6235,44 +6248,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31" t="s">
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="31" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="31" t="s">
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="31" t="s">
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="31" t="s">
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="29" t="s">
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W19" s="30"/>
+      <c r="W19" s="36"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -6300,38 +6313,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="43" t="s">
+      <c r="U20" s="31"/>
+      <c r="V20" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W20" s="44"/>
+      <c r="W20" s="33"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -6358,50 +6371,50 @@
       <c r="AV20" s="12"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="45" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="25" t="s">
+      <c r="I21" s="27"/>
+      <c r="J21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="45" t="s">
+      <c r="K21" s="25"/>
+      <c r="L21" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="25" t="s">
+      <c r="M21" s="27"/>
+      <c r="N21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="25" t="s">
+      <c r="O21" s="25"/>
+      <c r="P21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="25" t="s">
+      <c r="Q21" s="25"/>
+      <c r="R21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="S21" s="26"/>
-      <c r="T21" s="25" t="s">
+      <c r="S21" s="25"/>
+      <c r="T21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="U21" s="26"/>
-      <c r="V21" s="22" t="s">
+      <c r="U21" s="25"/>
+      <c r="V21" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="W21" s="22"/>
+      <c r="W21" s="23"/>
       <c r="X21" s="12"/>
       <c r="AT21" s="12"/>
       <c r="AU21" s="12"/>
@@ -6410,50 +6423,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22" t="s">
+      <c r="K22" s="23"/>
+      <c r="L22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="20" t="s">
+      <c r="M22" s="23"/>
+      <c r="N22" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="22" t="s">
+      <c r="O22" s="60"/>
+      <c r="P22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22" t="s">
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22" t="s">
+      <c r="S22" s="23"/>
+      <c r="T22" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="22"/>
-      <c r="V22" s="21" t="s">
+      <c r="U22" s="23"/>
+      <c r="V22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="21"/>
+      <c r="W22" s="37"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
@@ -6474,38 +6487,38 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="25" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="25"/>
+      <c r="J23" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22" t="s">
+      <c r="K23" s="23"/>
+      <c r="L23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22" t="s">
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22" t="s">
+      <c r="O23" s="23"/>
+      <c r="P23" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="23"/>
       <c r="R23" s="18" t="s">
         <v>105</v>
       </c>
@@ -6541,48 +6554,51 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21" t="s">
+      <c r="I24" s="60"/>
+      <c r="J24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="20" t="s">
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="22" t="s">
+      <c r="O24" s="60"/>
+      <c r="P24" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="18" t="s">
+      <c r="Q24" s="23"/>
+      <c r="R24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W24" s="73"/>
       <c r="X24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" s="12"/>
@@ -6593,10 +6609,6 @@
       <c r="AP24" s="12"/>
       <c r="AQ24" s="12"/>
       <c r="AR24" s="12"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12"/>
     </row>
     <row r="25" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
@@ -6645,44 +6657,44 @@
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="31" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="31" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="31" t="s">
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="31" t="s">
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="31" t="s">
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="29" t="s">
+      <c r="T27" s="53"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W27" s="30"/>
+      <c r="W27" s="36"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
@@ -6710,38 +6722,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41" t="s">
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U28" s="42"/>
-      <c r="V28" s="43" t="s">
+      <c r="U28" s="31"/>
+      <c r="V28" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W28" s="44"/>
+      <c r="W28" s="33"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
@@ -6768,50 +6780,50 @@
       <c r="AV28" s="14"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="27" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="23" t="s">
+      <c r="I29" s="77"/>
+      <c r="J29" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="27" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="23" t="s">
+      <c r="M29" s="77"/>
+      <c r="N29" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="O29" s="24"/>
-      <c r="P29" s="23" t="s">
+      <c r="O29" s="29"/>
+      <c r="P29" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="23" t="s">
+      <c r="Q29" s="29"/>
+      <c r="R29" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="23" t="s">
+      <c r="S29" s="29"/>
+      <c r="T29" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="U29" s="24"/>
-      <c r="V29" s="23" t="s">
+      <c r="U29" s="29"/>
+      <c r="V29" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="W29" s="24"/>
+      <c r="W29" s="29"/>
       <c r="X29" s="14"/>
       <c r="AT29" s="14"/>
       <c r="AU29" s="14"/>
@@ -6820,50 +6832,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="45" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="25" t="s">
+      <c r="I30" s="27"/>
+      <c r="J30" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="45" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="M30" s="46"/>
-      <c r="N30" s="25" t="s">
+      <c r="M30" s="27"/>
+      <c r="N30" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="25" t="s">
+      <c r="O30" s="25"/>
+      <c r="P30" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="22" t="s">
+      <c r="Q30" s="25"/>
+      <c r="R30" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22" t="s">
+      <c r="S30" s="23"/>
+      <c r="T30" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="U30" s="22"/>
-      <c r="V30" s="21" t="s">
+      <c r="U30" s="23"/>
+      <c r="V30" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="21"/>
+      <c r="W30" s="37"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
@@ -6884,38 +6896,38 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="23"/>
+      <c r="H31" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22" t="s">
+      <c r="I31" s="23"/>
+      <c r="J31" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="25" t="s">
+      <c r="K31" s="23"/>
+      <c r="L31" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="25" t="s">
+      <c r="M31" s="25"/>
+      <c r="N31" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="25" t="s">
+      <c r="O31" s="25"/>
+      <c r="P31" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="Q31" s="26"/>
+      <c r="Q31" s="25"/>
       <c r="R31" s="18" t="s">
         <v>105</v>
       </c>
@@ -6932,8 +6944,8 @@
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="14"/>
@@ -6955,48 +6967,51 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="55"/>
+      <c r="F32" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21" t="s">
+      <c r="I32" s="60"/>
+      <c r="J32" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="20" t="s">
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20" t="s">
+      <c r="O32" s="60"/>
+      <c r="P32" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="S32" s="20"/>
-      <c r="T32" s="18" t="s">
+      <c r="Q32" s="60"/>
+      <c r="R32" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W32" s="73"/>
       <c r="X32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
@@ -7007,10 +7022,6 @@
       <c r="AP32" s="14"/>
       <c r="AQ32" s="14"/>
       <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="14"/>
     </row>
     <row r="33" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
@@ -7059,33 +7070,33 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15" t="s">
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="81"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="AF35" s="14"/>
@@ -7106,27 +7117,27 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="AF36" s="14"/>
@@ -7147,38 +7158,38 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
@@ -7200,27 +7211,27 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
@@ -7286,44 +7297,44 @@
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31" t="s">
+      <c r="C41" s="36"/>
+      <c r="D41" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="31" t="s">
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="31" t="s">
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="31" t="s">
+      <c r="N41" s="53"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="31" t="s">
+      <c r="Q41" s="53"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T41" s="32"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="29" t="s">
+      <c r="T41" s="53"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W41" s="30"/>
+      <c r="W41" s="36"/>
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
@@ -7351,38 +7362,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
+      <c r="C42" s="44"/>
+      <c r="D42" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41" t="s">
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U42" s="42"/>
-      <c r="V42" s="43" t="s">
+      <c r="U42" s="31"/>
+      <c r="V42" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W42" s="44"/>
+      <c r="W42" s="33"/>
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
@@ -7409,50 +7420,50 @@
       <c r="AV42" s="14"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="25" t="s">
+      <c r="E43" s="25"/>
+      <c r="F43" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="45" t="s">
+      <c r="G43" s="25"/>
+      <c r="H43" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="25" t="s">
+      <c r="I43" s="27"/>
+      <c r="J43" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K43" s="26"/>
-      <c r="L43" s="45" t="s">
+      <c r="K43" s="25"/>
+      <c r="L43" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="M43" s="46"/>
-      <c r="N43" s="25" t="s">
+      <c r="M43" s="27"/>
+      <c r="N43" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="25" t="s">
+      <c r="O43" s="25"/>
+      <c r="P43" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="25" t="s">
+      <c r="Q43" s="25"/>
+      <c r="R43" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="S43" s="26"/>
-      <c r="T43" s="25" t="s">
+      <c r="S43" s="25"/>
+      <c r="T43" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="U43" s="26"/>
-      <c r="V43" s="22" t="s">
+      <c r="U43" s="25"/>
+      <c r="V43" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="W43" s="22"/>
+      <c r="W43" s="23"/>
       <c r="X43" s="14"/>
       <c r="AT43" s="14"/>
       <c r="AU43" s="14"/>
@@ -7461,50 +7472,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22" t="s">
+      <c r="G44" s="23"/>
+      <c r="H44" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22" t="s">
+      <c r="I44" s="23"/>
+      <c r="J44" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22" t="s">
+      <c r="K44" s="23"/>
+      <c r="L44" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="20" t="s">
+      <c r="M44" s="23"/>
+      <c r="N44" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="O44" s="20"/>
-      <c r="P44" s="22" t="s">
+      <c r="O44" s="60"/>
+      <c r="P44" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22" t="s">
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22" t="s">
+      <c r="S44" s="23"/>
+      <c r="T44" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="U44" s="22"/>
-      <c r="V44" s="21" t="s">
+      <c r="U44" s="23"/>
+      <c r="V44" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="21"/>
+      <c r="W44" s="37"/>
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="14"/>
@@ -7525,38 +7536,38 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22" t="s">
+      <c r="G45" s="23"/>
+      <c r="H45" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22" t="s">
+      <c r="I45" s="23"/>
+      <c r="J45" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22" t="s">
+      <c r="K45" s="23"/>
+      <c r="L45" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22" t="s">
+      <c r="M45" s="23"/>
+      <c r="N45" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22" t="s">
+      <c r="O45" s="23"/>
+      <c r="P45" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="Q45" s="22"/>
+      <c r="Q45" s="23"/>
       <c r="R45" s="18" t="s">
         <v>105</v>
       </c>
@@ -7573,8 +7584,8 @@
       <c r="Z45" s="14"/>
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
       <c r="AE45" s="14"/>
       <c r="AF45" s="14"/>
       <c r="AG45" s="14"/>
@@ -7596,48 +7607,51 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19" t="s">
+      <c r="E46" s="55"/>
+      <c r="F46" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20" t="s">
+      <c r="G46" s="55"/>
+      <c r="H46" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21" t="s">
+      <c r="I46" s="60"/>
+      <c r="J46" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="20" t="s">
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="22" t="s">
+      <c r="O46" s="60"/>
+      <c r="P46" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="S46" s="22"/>
-      <c r="T46" s="18" t="s">
+      <c r="Q46" s="23"/>
+      <c r="R46" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
+      <c r="S46" s="75"/>
+      <c r="T46" s="75"/>
+      <c r="U46" s="75"/>
+      <c r="V46" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W46" s="73"/>
       <c r="X46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
       <c r="AK46" s="14"/>
@@ -7648,10 +7662,6 @@
       <c r="AP46" s="14"/>
       <c r="AQ46" s="14"/>
       <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14"/>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="14"/>
     </row>
     <row r="47" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="14"/>
@@ -7700,44 +7710,44 @@
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="31" t="s">
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="31" t="s">
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="31" t="s">
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="31" t="s">
+      <c r="N49" s="53"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="31" t="s">
+      <c r="Q49" s="53"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T49" s="32"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="29" t="s">
+      <c r="T49" s="53"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W49" s="30"/>
+      <c r="W49" s="36"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
@@ -7765,38 +7775,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38" t="s">
+      <c r="E50" s="46"/>
+      <c r="F50" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="41" t="s">
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U50" s="42"/>
-      <c r="V50" s="43" t="s">
+      <c r="U50" s="31"/>
+      <c r="V50" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W50" s="44"/>
+      <c r="W50" s="33"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
       <c r="AA50" s="14"/>
@@ -7823,50 +7833,50 @@
       <c r="AV50" s="14"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="23" t="s">
+      <c r="C51" s="77"/>
+      <c r="D51" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="27" t="s">
+      <c r="E51" s="29"/>
+      <c r="F51" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="23" t="s">
+      <c r="G51" s="77"/>
+      <c r="H51" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25" t="s">
+      <c r="I51" s="29"/>
+      <c r="J51" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="25" t="s">
+      <c r="K51" s="25"/>
+      <c r="L51" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="23" t="s">
+      <c r="M51" s="25"/>
+      <c r="N51" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="O51" s="24"/>
-      <c r="P51" s="23" t="s">
+      <c r="O51" s="29"/>
+      <c r="P51" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="23" t="s">
+      <c r="Q51" s="29"/>
+      <c r="R51" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="S51" s="24"/>
-      <c r="T51" s="23" t="s">
+      <c r="S51" s="29"/>
+      <c r="T51" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="U51" s="24"/>
-      <c r="V51" s="22" t="s">
+      <c r="U51" s="29"/>
+      <c r="V51" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="W51" s="22"/>
+      <c r="W51" s="23"/>
       <c r="X51" s="14"/>
       <c r="AT51" s="14"/>
       <c r="AU51" s="14"/>
@@ -7875,30 +7885,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="21" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="21"/>
+      <c r="W52" s="37"/>
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="14"/>
@@ -7919,24 +7929,24 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
       <c r="R53" s="18" t="s">
         <v>105</v>
       </c>
@@ -7953,8 +7963,8 @@
       <c r="Z53" s="14"/>
       <c r="AA53" s="14"/>
       <c r="AB53" s="14"/>
-      <c r="AC53" s="17"/>
-      <c r="AD53" s="17"/>
+      <c r="AC53" s="64"/>
+      <c r="AD53" s="64"/>
       <c r="AE53" s="14"/>
       <c r="AF53" s="14"/>
       <c r="AG53" s="14"/>
@@ -7976,38 +7986,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="55"/>
+      <c r="F54" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="21" t="s">
+      <c r="G54" s="55"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="18" t="s">
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W54" s="73"/>
       <c r="X54" s="14"/>
       <c r="Z54" s="14"/>
       <c r="AA54" s="14"/>
@@ -8074,44 +8086,44 @@
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31" t="s">
+      <c r="C57" s="36"/>
+      <c r="D57" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="31" t="s">
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="31" t="s">
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K57" s="32"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="31" t="s">
+      <c r="K57" s="53"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N57" s="32"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="31" t="s">
+      <c r="N57" s="53"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="31" t="s">
+      <c r="Q57" s="53"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T57" s="32"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="29" t="s">
+      <c r="T57" s="53"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W57" s="30"/>
+      <c r="W57" s="36"/>
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="14"/>
@@ -8139,38 +8151,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36" t="s">
+      <c r="C58" s="44"/>
+      <c r="D58" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="38" t="s">
+      <c r="E58" s="46"/>
+      <c r="F58" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="41" t="s">
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U58" s="42"/>
-      <c r="V58" s="43" t="s">
+      <c r="U58" s="31"/>
+      <c r="V58" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W58" s="44"/>
+      <c r="W58" s="33"/>
       <c r="Y58" s="14"/>
       <c r="Z58" s="14"/>
       <c r="AA58" s="14"/>
@@ -8197,50 +8209,50 @@
       <c r="AV58" s="14"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="23" t="s">
+      <c r="C59" s="77"/>
+      <c r="D59" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="27" t="s">
+      <c r="E59" s="29"/>
+      <c r="F59" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="23" t="s">
+      <c r="G59" s="77"/>
+      <c r="H59" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25" t="s">
+      <c r="I59" s="29"/>
+      <c r="J59" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="K59" s="26"/>
-      <c r="L59" s="25" t="s">
+      <c r="K59" s="25"/>
+      <c r="L59" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="M59" s="26"/>
-      <c r="N59" s="23" t="s">
+      <c r="M59" s="25"/>
+      <c r="N59" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="O59" s="24"/>
-      <c r="P59" s="23" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="23" t="s">
+      <c r="Q59" s="29"/>
+      <c r="R59" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="S59" s="24"/>
-      <c r="T59" s="23" t="s">
+      <c r="S59" s="29"/>
+      <c r="T59" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="U59" s="24"/>
-      <c r="V59" s="22" t="s">
+      <c r="U59" s="29"/>
+      <c r="V59" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="W59" s="22"/>
+      <c r="W59" s="23"/>
       <c r="X59" s="14"/>
       <c r="AT59" s="14"/>
       <c r="AU59" s="14"/>
@@ -8249,50 +8261,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22" t="s">
+      <c r="C60" s="23"/>
+      <c r="D60" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22" t="s">
+      <c r="E60" s="23"/>
+      <c r="F60" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22" t="s">
+      <c r="G60" s="23"/>
+      <c r="H60" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="25" t="s">
+      <c r="I60" s="23"/>
+      <c r="J60" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K60" s="26"/>
-      <c r="L60" s="22" t="s">
+      <c r="K60" s="25"/>
+      <c r="L60" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="M60" s="22"/>
-      <c r="N60" s="20" t="s">
+      <c r="M60" s="23"/>
+      <c r="N60" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="O60" s="20"/>
-      <c r="P60" s="22" t="s">
+      <c r="O60" s="60"/>
+      <c r="P60" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22" t="s">
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22" t="s">
+      <c r="S60" s="23"/>
+      <c r="T60" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="U60" s="22"/>
-      <c r="V60" s="21" t="s">
+      <c r="U60" s="23"/>
+      <c r="V60" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="21"/>
+      <c r="W60" s="37"/>
       <c r="AA60" s="14"/>
       <c r="AB60" s="14"/>
       <c r="AC60" s="14"/>
@@ -8313,38 +8325,38 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22" t="s">
+      <c r="E61" s="23"/>
+      <c r="F61" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22" t="s">
+      <c r="G61" s="23"/>
+      <c r="H61" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22" t="s">
+      <c r="I61" s="23"/>
+      <c r="J61" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22" t="s">
+      <c r="K61" s="23"/>
+      <c r="L61" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22" t="s">
+      <c r="M61" s="23"/>
+      <c r="N61" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22" t="s">
+      <c r="O61" s="23"/>
+      <c r="P61" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="Q61" s="22"/>
+      <c r="Q61" s="23"/>
       <c r="R61" s="18" t="s">
         <v>105</v>
       </c>
@@ -8361,8 +8373,8 @@
       <c r="Z61" s="14"/>
       <c r="AA61" s="14"/>
       <c r="AB61" s="14"/>
-      <c r="AC61" s="17"/>
-      <c r="AD61" s="17"/>
+      <c r="AC61" s="64"/>
+      <c r="AD61" s="64"/>
       <c r="AE61" s="14"/>
       <c r="AF61" s="14"/>
       <c r="AG61" s="14"/>
@@ -8384,48 +8396,51 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="C62" s="55"/>
+      <c r="D62" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19" t="s">
+      <c r="E62" s="55"/>
+      <c r="F62" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20" t="s">
+      <c r="G62" s="55"/>
+      <c r="H62" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="21" t="s">
+      <c r="I62" s="60"/>
+      <c r="J62" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="20" t="s">
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="22" t="s">
+      <c r="O62" s="60"/>
+      <c r="P62" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="S62" s="22"/>
-      <c r="T62" s="18" t="s">
+      <c r="Q62" s="23"/>
+      <c r="R62" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
+      <c r="U62" s="75"/>
+      <c r="V62" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W62" s="73"/>
       <c r="X62" s="14"/>
-      <c r="Z62" s="14"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
       <c r="AI62" s="14"/>
       <c r="AJ62" s="14"/>
       <c r="AK62" s="14"/>
@@ -8436,10 +8451,6 @@
       <c r="AP62" s="14"/>
       <c r="AQ62" s="14"/>
       <c r="AR62" s="14"/>
-      <c r="AS62" s="14"/>
-      <c r="AT62" s="14"/>
-      <c r="AU62" s="14"/>
-      <c r="AV62" s="14"/>
     </row>
     <row r="63" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="14"/>
@@ -8488,44 +8499,44 @@
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31" t="s">
+      <c r="C65" s="36"/>
+      <c r="D65" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="31" t="s">
+      <c r="E65" s="53"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="31" t="s">
+      <c r="H65" s="53"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K65" s="32"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="31" t="s">
+      <c r="K65" s="53"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N65" s="32"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="31" t="s">
+      <c r="N65" s="53"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="31" t="s">
+      <c r="Q65" s="53"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T65" s="32"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="29" t="s">
+      <c r="T65" s="53"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W65" s="30"/>
+      <c r="W65" s="36"/>
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
@@ -8553,38 +8564,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36" t="s">
+      <c r="C66" s="44"/>
+      <c r="D66" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="38" t="s">
+      <c r="E66" s="46"/>
+      <c r="F66" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="41" t="s">
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U66" s="42"/>
-      <c r="V66" s="43" t="s">
+      <c r="U66" s="31"/>
+      <c r="V66" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W66" s="44"/>
+      <c r="W66" s="33"/>
       <c r="Y66" s="14"/>
       <c r="Z66" s="14"/>
       <c r="AA66" s="14"/>
@@ -8611,50 +8622,50 @@
       <c r="AV66" s="14"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="23" t="s">
+      <c r="C67" s="77"/>
+      <c r="D67" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="27" t="s">
+      <c r="E67" s="29"/>
+      <c r="F67" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="23" t="s">
+      <c r="G67" s="77"/>
+      <c r="H67" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="25" t="s">
+      <c r="I67" s="29"/>
+      <c r="J67" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="K67" s="26"/>
-      <c r="L67" s="25" t="s">
+      <c r="K67" s="25"/>
+      <c r="L67" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="M67" s="26"/>
-      <c r="N67" s="23" t="s">
+      <c r="M67" s="25"/>
+      <c r="N67" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="O67" s="24"/>
-      <c r="P67" s="23" t="s">
+      <c r="O67" s="29"/>
+      <c r="P67" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="23" t="s">
+      <c r="Q67" s="29"/>
+      <c r="R67" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="S67" s="24"/>
-      <c r="T67" s="23" t="s">
+      <c r="S67" s="29"/>
+      <c r="T67" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="U67" s="24"/>
-      <c r="V67" s="22" t="s">
+      <c r="U67" s="29"/>
+      <c r="V67" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="W67" s="22"/>
+      <c r="W67" s="23"/>
       <c r="X67" s="14"/>
       <c r="AT67" s="14"/>
       <c r="AU67" s="14"/>
@@ -8663,50 +8674,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22" t="s">
+      <c r="C68" s="23"/>
+      <c r="D68" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22" t="s">
+      <c r="E68" s="23"/>
+      <c r="F68" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22" t="s">
+      <c r="G68" s="23"/>
+      <c r="H68" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="25" t="s">
+      <c r="I68" s="23"/>
+      <c r="J68" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="K68" s="26"/>
-      <c r="L68" s="22" t="s">
+      <c r="K68" s="25"/>
+      <c r="L68" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="M68" s="22"/>
-      <c r="N68" s="20" t="s">
+      <c r="M68" s="23"/>
+      <c r="N68" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="O68" s="20"/>
-      <c r="P68" s="22" t="s">
+      <c r="O68" s="60"/>
+      <c r="P68" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22" t="s">
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22" t="s">
+      <c r="S68" s="23"/>
+      <c r="T68" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="U68" s="22"/>
-      <c r="V68" s="21" t="s">
+      <c r="U68" s="23"/>
+      <c r="V68" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="21"/>
+      <c r="W68" s="37"/>
       <c r="AA68" s="14"/>
       <c r="AB68" s="14"/>
       <c r="AC68" s="14"/>
@@ -8727,38 +8738,38 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22" t="s">
+      <c r="C69" s="23"/>
+      <c r="D69" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22" t="s">
+      <c r="E69" s="23"/>
+      <c r="F69" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22" t="s">
+      <c r="G69" s="23"/>
+      <c r="H69" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22" t="s">
+      <c r="I69" s="23"/>
+      <c r="J69" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22" t="s">
+      <c r="K69" s="23"/>
+      <c r="L69" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22" t="s">
+      <c r="M69" s="23"/>
+      <c r="N69" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22" t="s">
+      <c r="O69" s="23"/>
+      <c r="P69" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="Q69" s="22"/>
+      <c r="Q69" s="23"/>
       <c r="R69" s="18" t="s">
         <v>105</v>
       </c>
@@ -8775,8 +8786,8 @@
       <c r="Z69" s="14"/>
       <c r="AA69" s="14"/>
       <c r="AB69" s="14"/>
-      <c r="AC69" s="17"/>
-      <c r="AD69" s="17"/>
+      <c r="AC69" s="64"/>
+      <c r="AD69" s="64"/>
       <c r="AE69" s="14"/>
       <c r="AF69" s="14"/>
       <c r="AG69" s="14"/>
@@ -8798,48 +8809,51 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="C70" s="55"/>
+      <c r="D70" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19" t="s">
+      <c r="E70" s="55"/>
+      <c r="F70" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="20" t="s">
+      <c r="G70" s="55"/>
+      <c r="H70" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21" t="s">
+      <c r="I70" s="60"/>
+      <c r="J70" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="83" t="s">
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="22" t="s">
+      <c r="O70" s="80"/>
+      <c r="P70" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="S70" s="22"/>
-      <c r="T70" s="18" t="s">
+      <c r="Q70" s="23"/>
+      <c r="R70" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W70" s="73"/>
       <c r="X70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
       <c r="AI70" s="14"/>
       <c r="AJ70" s="14"/>
       <c r="AK70" s="14"/>
@@ -8850,10 +8864,6 @@
       <c r="AP70" s="14"/>
       <c r="AQ70" s="14"/>
       <c r="AR70" s="14"/>
-      <c r="AS70" s="14"/>
-      <c r="AT70" s="14"/>
-      <c r="AU70" s="14"/>
-      <c r="AV70" s="14"/>
     </row>
     <row r="71" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="14"/>
@@ -8902,44 +8912,44 @@
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31" t="s">
+      <c r="C73" s="36"/>
+      <c r="D73" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="31" t="s">
+      <c r="E73" s="53"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="31" t="s">
+      <c r="H73" s="53"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K73" s="32"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="31" t="s">
+      <c r="K73" s="53"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N73" s="32"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="31" t="s">
+      <c r="N73" s="53"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="33"/>
-      <c r="S73" s="31" t="s">
+      <c r="Q73" s="53"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T73" s="32"/>
-      <c r="U73" s="33"/>
-      <c r="V73" s="29" t="s">
+      <c r="T73" s="53"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W73" s="30"/>
+      <c r="W73" s="36"/>
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
       <c r="AA73" s="14"/>
@@ -8967,38 +8977,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36" t="s">
+      <c r="C74" s="44"/>
+      <c r="D74" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="37"/>
-      <c r="F74" s="38" t="s">
+      <c r="E74" s="46"/>
+      <c r="F74" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="41" t="s">
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="48"/>
+      <c r="P74" s="48"/>
+      <c r="Q74" s="48"/>
+      <c r="R74" s="48"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U74" s="42"/>
-      <c r="V74" s="43" t="s">
+      <c r="U74" s="31"/>
+      <c r="V74" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W74" s="44"/>
+      <c r="W74" s="33"/>
       <c r="Y74" s="14"/>
       <c r="Z74" s="14"/>
       <c r="AA74" s="14"/>
@@ -9025,50 +9035,50 @@
       <c r="AV74" s="14"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="76" t="s">
         <v>338</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="23" t="s">
+      <c r="C75" s="77"/>
+      <c r="D75" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23" t="s">
+      <c r="E75" s="29"/>
+      <c r="F75" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="23" t="s">
+      <c r="G75" s="29"/>
+      <c r="H75" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="23" t="s">
+      <c r="I75" s="29"/>
+      <c r="J75" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="K75" s="24"/>
-      <c r="L75" s="23" t="s">
+      <c r="K75" s="29"/>
+      <c r="L75" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="23" t="s">
+      <c r="M75" s="29"/>
+      <c r="N75" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="O75" s="24"/>
-      <c r="P75" s="23" t="s">
+      <c r="O75" s="29"/>
+      <c r="P75" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="22" t="s">
+      <c r="Q75" s="29"/>
+      <c r="R75" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22" t="s">
+      <c r="S75" s="23"/>
+      <c r="T75" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22" t="s">
+      <c r="U75" s="23"/>
+      <c r="V75" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="W75" s="22"/>
+      <c r="W75" s="23"/>
       <c r="X75" s="14"/>
       <c r="AT75" s="14"/>
       <c r="AU75" s="14"/>
@@ -9077,50 +9087,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="25" t="s">
+      <c r="C76" s="25"/>
+      <c r="D76" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="25" t="s">
+      <c r="E76" s="25"/>
+      <c r="F76" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="25" t="s">
+      <c r="G76" s="25"/>
+      <c r="H76" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="81" t="s">
+      <c r="I76" s="25"/>
+      <c r="J76" s="78" t="s">
         <v>352</v>
       </c>
-      <c r="K76" s="82"/>
-      <c r="L76" s="25" t="s">
+      <c r="K76" s="79"/>
+      <c r="L76" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="M76" s="26"/>
-      <c r="N76" s="22" t="s">
+      <c r="M76" s="25"/>
+      <c r="N76" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22" t="s">
+      <c r="O76" s="23"/>
+      <c r="P76" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22" t="s">
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22" t="s">
+      <c r="S76" s="23"/>
+      <c r="T76" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="U76" s="22"/>
-      <c r="V76" s="21" t="s">
+      <c r="U76" s="23"/>
+      <c r="V76" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="21"/>
+      <c r="W76" s="37"/>
       <c r="AA76" s="14"/>
       <c r="AB76" s="14"/>
       <c r="AC76" s="14"/>
@@ -9141,34 +9151,34 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="25" t="s">
+      <c r="C77" s="23"/>
+      <c r="D77" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="E77" s="26"/>
-      <c r="F77" s="25" t="s">
+      <c r="E77" s="25"/>
+      <c r="F77" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="G77" s="26"/>
-      <c r="H77" s="25" t="s">
+      <c r="G77" s="25"/>
+      <c r="H77" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="81" t="s">
+      <c r="I77" s="25"/>
+      <c r="J77" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="K77" s="82"/>
-      <c r="L77" s="81" t="s">
+      <c r="K77" s="79"/>
+      <c r="L77" s="78" t="s">
         <v>362</v>
       </c>
-      <c r="M77" s="82"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
       <c r="R77" s="18" t="s">
         <v>105</v>
       </c>
@@ -9185,8 +9195,8 @@
       <c r="Z77" s="14"/>
       <c r="AA77" s="14"/>
       <c r="AB77" s="14"/>
-      <c r="AC77" s="17"/>
-      <c r="AD77" s="17"/>
+      <c r="AC77" s="64"/>
+      <c r="AD77" s="64"/>
       <c r="AE77" s="14"/>
       <c r="AF77" s="14"/>
       <c r="AG77" s="14"/>
@@ -9208,38 +9218,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="C78" s="55"/>
+      <c r="D78" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19" t="s">
+      <c r="E78" s="55"/>
+      <c r="F78" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="21" t="s">
+      <c r="G78" s="55"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="18" t="s">
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
+      <c r="S78" s="75"/>
+      <c r="T78" s="75"/>
+      <c r="U78" s="75"/>
+      <c r="V78" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W78" s="73"/>
       <c r="X78" s="14"/>
       <c r="Z78" s="14"/>
       <c r="AA78" s="14"/>
@@ -9305,135 +9317,133 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="76" t="s">
+      <c r="C81" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76" t="s">
+      <c r="D81" s="15"/>
+      <c r="E81" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76" t="s">
+      <c r="F81" s="15"/>
+      <c r="G81" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76" t="s">
+      <c r="H81" s="15"/>
+      <c r="I81" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76" t="s">
+      <c r="J81" s="15"/>
+      <c r="K81" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76" t="s">
+      <c r="L81" s="15"/>
+      <c r="M81" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76" t="s">
+      <c r="N81" s="15"/>
+      <c r="O81" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76" t="s">
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76" t="s">
+      <c r="R81" s="15"/>
+      <c r="S81" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76" t="s">
+      <c r="T81" s="15"/>
+      <c r="U81" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="V81" s="76"/>
+      <c r="V81" s="15"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
-      <c r="AS81" s="12"/>
-      <c r="AT81" s="12"/>
-      <c r="AU81" s="12"/>
-      <c r="AV81" s="12"/>
-      <c r="AW81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="64"/>
-      <c r="D82" s="63" t="s">
+      <c r="C82" s="21"/>
+      <c r="D82" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="64"/>
-      <c r="F82" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="G82" s="66"/>
-      <c r="H82" s="63" t="s">
+      <c r="E82" s="21"/>
+      <c r="F82" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I82" s="57"/>
+      <c r="J82" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M82" s="17"/>
+      <c r="N82" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="O82" s="17"/>
+      <c r="P82" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="64"/>
-      <c r="J82" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="K82" s="67"/>
-      <c r="L82" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="M82" s="69"/>
-      <c r="N82" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="O82" s="67"/>
-      <c r="P82" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q82" s="66"/>
-      <c r="R82" s="63" t="s">
+      <c r="Q82" s="21"/>
+      <c r="R82" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="S82" s="64"/>
-      <c r="T82" s="63" t="s">
+      <c r="S82" s="21"/>
+      <c r="T82" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="U82" s="64"/>
-      <c r="V82" s="78" t="s">
+      <c r="U82" s="21"/>
+      <c r="V82" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="78"/>
+      <c r="W82" s="22"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="65" t="s">
+      <c r="C83" s="23"/>
+      <c r="D83" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="66"/>
-      <c r="F83" s="65" t="s">
+      <c r="G83" s="17"/>
+      <c r="H83" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G83" s="66"/>
-      <c r="H83" s="65" t="s">
+      <c r="I83" s="17"/>
+      <c r="J83" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K83" s="21"/>
+      <c r="L83" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="M83" s="21"/>
+      <c r="N83" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O83" s="21"/>
+      <c r="P83" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I83" s="66"/>
-      <c r="J83" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="K83" s="64"/>
-      <c r="L83" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="M83" s="64"/>
-      <c r="N83" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="O83" s="64"/>
-      <c r="P83" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q83" s="66"/>
+      <c r="Q83" s="17"/>
       <c r="R83" s="18" t="s">
         <v>105</v>
       </c>
@@ -9442,68 +9452,50 @@
         <v>30</v>
       </c>
       <c r="U83" s="18"/>
-      <c r="V83" s="77" t="s">
+      <c r="V83" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="77"/>
-      <c r="Z83" s="12"/>
-      <c r="AA83" s="12"/>
-      <c r="AB83" s="12"/>
-      <c r="AC83" s="12"/>
-      <c r="AD83" s="12"/>
+      <c r="W83" s="19"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="C84" s="55"/>
+      <c r="D84" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19" t="s">
+      <c r="E84" s="55"/>
+      <c r="F84" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="63" t="s">
+      <c r="G84" s="55"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I84" s="64"/>
-      <c r="J84" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q84" s="66"/>
-      <c r="R84" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="S84" s="64"/>
-      <c r="T84" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="U84" s="64"/>
-      <c r="V84" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="W84" s="47"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="W84" s="73"/>
       <c r="X84" s="12"/>
-      <c r="Z84" s="12"/>
-      <c r="AA84" s="12"/>
-      <c r="AB84" s="12"/>
-      <c r="AC84" s="12"/>
-      <c r="AD84" s="12"/>
-      <c r="AE84" s="12"/>
-      <c r="AF84" s="12"/>
-      <c r="AG84" s="12"/>
-      <c r="AH84" s="12"/>
     </row>
     <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
@@ -9512,44 +9504,44 @@
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31" t="s">
+      <c r="C87" s="36"/>
+      <c r="D87" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="31" t="s">
+      <c r="E87" s="53"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="31" t="s">
+      <c r="H87" s="53"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K87" s="32"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="31" t="s">
+      <c r="K87" s="53"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N87" s="32"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="31" t="s">
+      <c r="N87" s="53"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="31" t="s">
+      <c r="Q87" s="53"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T87" s="32"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="29" t="s">
+      <c r="T87" s="53"/>
+      <c r="U87" s="54"/>
+      <c r="V87" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W87" s="30"/>
+      <c r="W87" s="36"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
       <c r="AB87" s="12"/>
@@ -9573,38 +9565,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36" t="s">
+      <c r="C88" s="44"/>
+      <c r="D88" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E88" s="37"/>
-      <c r="F88" s="38" t="s">
+      <c r="E88" s="46"/>
+      <c r="F88" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="41" t="s">
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U88" s="42"/>
-      <c r="V88" s="43" t="s">
+      <c r="U88" s="31"/>
+      <c r="V88" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W88" s="44"/>
+      <c r="W88" s="33"/>
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
       <c r="AB88" s="12"/>
@@ -9627,7 +9619,545 @@
       <c r="AW88" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="553">
+  <mergeCells count="562">
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="AC77:AD77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="AC61:AD61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="M81:N81"/>
     <mergeCell ref="O81:P81"/>
@@ -9652,535 +10182,6 @@
     <mergeCell ref="J83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="AC61:AD61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:W62"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="AC77:AD77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="T78:W78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="AC69:AD69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10209,44 +10210,44 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="31" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="31" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="31" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="31" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="29" t="s">
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="30"/>
+      <c r="W3" s="36"/>
       <c r="Z3" s="7" t="s">
         <v>40</v>
       </c>
@@ -10267,38 +10268,38 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U4" s="42"/>
-      <c r="V4" s="43" t="s">
+      <c r="U4" s="31"/>
+      <c r="V4" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="44"/>
+      <c r="W4" s="33"/>
       <c r="Z4" s="11" t="s">
         <v>39</v>
       </c>
@@ -10318,46 +10319,46 @@
       <c r="AT4" s="2"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56" t="s">
+      <c r="L5" s="65"/>
+      <c r="M5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56" t="s">
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56" t="s">
+      <c r="R5" s="65"/>
+      <c r="S5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56" t="s">
+      <c r="T5" s="65"/>
+      <c r="U5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="56"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Z5" s="5" t="s">
@@ -10383,50 +10384,50 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="50" t="s">
+      <c r="U6" s="23"/>
+      <c r="V6" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="51"/>
+      <c r="W6" s="62"/>
       <c r="Z6" s="6" t="s">
         <v>90</v>
       </c>
@@ -10450,50 +10451,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="18" t="s">
         <v>105</v>
       </c>
       <c r="S7" s="18"/>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="49"/>
-      <c r="V7" s="48" t="s">
+      <c r="U7" s="73"/>
+      <c r="V7" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="49"/>
+      <c r="W7" s="73"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AH7" s="1"/>
@@ -10512,44 +10513,44 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50" t="s">
+      <c r="I8" s="62"/>
+      <c r="J8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="21" t="s">
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="52" t="s">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="48" t="s">
+      <c r="S8" s="74"/>
+      <c r="T8" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="49"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="73"/>
       <c r="X8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -10609,44 +10610,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="31" t="s">
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="31" t="s">
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="31" t="s">
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="31" t="s">
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="29" t="s">
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="30"/>
+      <c r="W11" s="36"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AH11" s="1"/>
@@ -10667,38 +10668,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="43" t="s">
+      <c r="U12" s="31"/>
+      <c r="V12" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="33"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AH12" s="1"/>
@@ -10718,46 +10719,46 @@
       <c r="AV12" s="1"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="56">
+      <c r="C13" s="65">
         <v>1</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65">
         <v>2</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56">
+      <c r="F13" s="65"/>
+      <c r="G13" s="65">
         <v>3</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56">
+      <c r="H13" s="65"/>
+      <c r="I13" s="65">
         <v>4</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56">
+      <c r="J13" s="65"/>
+      <c r="K13" s="65">
         <v>5</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56">
+      <c r="L13" s="65"/>
+      <c r="M13" s="65">
         <v>6</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56">
+      <c r="N13" s="65"/>
+      <c r="O13" s="65">
         <v>7</v>
       </c>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65">
         <v>8</v>
       </c>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56">
+      <c r="R13" s="65"/>
+      <c r="S13" s="65">
         <v>9</v>
       </c>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56">
+      <c r="T13" s="65"/>
+      <c r="U13" s="65">
         <v>0</v>
       </c>
-      <c r="V13" s="56"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Z13" s="1"/>
@@ -10781,50 +10782,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="62" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56" t="s">
+      <c r="I14" s="65"/>
+      <c r="J14" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56" t="s">
+      <c r="K14" s="65"/>
+      <c r="L14" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57" t="s">
+      <c r="M14" s="65"/>
+      <c r="N14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="58"/>
-      <c r="P14" s="57" t="s">
+      <c r="O14" s="67"/>
+      <c r="P14" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="57" t="s">
+      <c r="Q14" s="67"/>
+      <c r="R14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="58"/>
-      <c r="T14" s="57" t="s">
+      <c r="S14" s="67"/>
+      <c r="T14" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="58"/>
-      <c r="V14" s="59" t="s">
+      <c r="U14" s="67"/>
+      <c r="V14" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="68"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AH14" s="1"/>
@@ -10846,38 +10847,38 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="55" t="s">
+      <c r="I15" s="23"/>
+      <c r="J15" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="55" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="55" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22" t="s">
+      <c r="O15" s="23"/>
+      <c r="P15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="18" t="s">
         <v>105</v>
       </c>
@@ -10893,8 +10894,8 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -10916,43 +10917,43 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21" t="s">
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="15" t="s">
+      <c r="Q16" s="37"/>
+      <c r="R16" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75" t="s">
+      <c r="S16" s="51"/>
+      <c r="T16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
       <c r="W16" s="18"/>
       <c r="X16" s="1"/>
       <c r="Z16" s="1"/>
@@ -11020,44 +11021,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31" t="s">
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="31" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="31" t="s">
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="31" t="s">
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="31" t="s">
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="29" t="s">
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W19" s="30"/>
+      <c r="W19" s="36"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -11085,38 +11086,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="43" t="s">
+      <c r="U20" s="31"/>
+      <c r="V20" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W20" s="44"/>
+      <c r="W20" s="33"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
@@ -11143,46 +11144,46 @@
       <c r="AV20" s="1"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="45" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="25" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="45" t="s">
+      <c r="L21" s="25"/>
+      <c r="M21" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="25" t="s">
+      <c r="N21" s="27"/>
+      <c r="O21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="25" t="s">
+      <c r="P21" s="25"/>
+      <c r="Q21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="25" t="s">
+      <c r="R21" s="25"/>
+      <c r="S21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="T21" s="26"/>
-      <c r="U21" s="25" t="s">
+      <c r="T21" s="25"/>
+      <c r="U21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="26"/>
+      <c r="V21" s="25"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Z21" s="1"/>
@@ -11212,50 +11213,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22" t="s">
+      <c r="K22" s="23"/>
+      <c r="L22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="20" t="s">
+      <c r="M22" s="23"/>
+      <c r="N22" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="22" t="s">
+      <c r="O22" s="60"/>
+      <c r="P22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22" t="s">
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22" t="s">
+      <c r="S22" s="23"/>
+      <c r="T22" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="22"/>
-      <c r="V22" s="21" t="s">
+      <c r="U22" s="23"/>
+      <c r="V22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="21"/>
+      <c r="W22" s="37"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -11276,38 +11277,38 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22" t="s">
+      <c r="K23" s="23"/>
+      <c r="L23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22" t="s">
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22" t="s">
+      <c r="O23" s="23"/>
+      <c r="P23" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="23"/>
       <c r="R23" s="18" t="s">
         <v>105</v>
       </c>
@@ -11324,8 +11325,8 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -11347,38 +11348,38 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="21" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21" t="s">
+      <c r="I24" s="37"/>
+      <c r="J24" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21" t="s">
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22" t="s">
+      <c r="Q24" s="37"/>
+      <c r="R24" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="S24" s="22"/>
+      <c r="S24" s="23"/>
       <c r="T24" s="18" t="s">
         <v>31</v>
       </c>
@@ -11453,46 +11454,46 @@
       </c>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76" t="s">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76" t="s">
+      <c r="L27" s="15"/>
+      <c r="M27" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76" t="s">
+      <c r="N27" s="15"/>
+      <c r="O27" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76" t="s">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76" t="s">
+      <c r="R27" s="15"/>
+      <c r="S27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76" t="s">
+      <c r="T27" s="15"/>
+      <c r="U27" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="V27" s="76"/>
+      <c r="V27" s="15"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Z27" s="1"/>
@@ -11522,46 +11523,46 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="65" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="65" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="63" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="68" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="69"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="63" t="s">
+      <c r="M28" s="59"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="63" t="s">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="S28" s="64"/>
-      <c r="T28" s="63" t="s">
+      <c r="S28" s="21"/>
+      <c r="T28" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="U28" s="64"/>
-      <c r="V28" s="78" t="s">
+      <c r="U28" s="21"/>
+      <c r="V28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="78"/>
+      <c r="W28" s="22"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
@@ -11586,34 +11587,34 @@
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="63" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="63" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="64"/>
-      <c r="L29" s="63" t="s">
+      <c r="K29" s="21"/>
+      <c r="L29" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="M29" s="64"/>
-      <c r="N29" s="63" t="s">
+      <c r="M29" s="21"/>
+      <c r="N29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O29" s="64"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
       <c r="R29" s="18" t="s">
         <v>105</v>
       </c>
@@ -11622,17 +11623,17 @@
         <v>30</v>
       </c>
       <c r="U29" s="18"/>
-      <c r="V29" s="77" t="s">
+      <c r="V29" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W29" s="77"/>
-      <c r="Z29" s="67" t="s">
+      <c r="W29" s="19"/>
+      <c r="Z29" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="AA29" s="67"/>
+      <c r="AA29" s="57"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
@@ -11654,59 +11655,59 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="65" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="65" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="47" t="s">
+      <c r="G30" s="17"/>
+      <c r="H30" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="21" t="s">
+      <c r="I30" s="56"/>
+      <c r="J30" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="65" t="s">
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="63" t="s">
+      <c r="Q30" s="17"/>
+      <c r="R30" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="S30" s="64"/>
-      <c r="T30" s="63" t="s">
+      <c r="S30" s="21"/>
+      <c r="T30" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="U30" s="64"/>
-      <c r="V30" s="47" t="s">
+      <c r="U30" s="21"/>
+      <c r="V30" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="W30" s="47"/>
+      <c r="W30" s="56"/>
       <c r="X30" s="1"/>
-      <c r="Z30" s="67" t="s">
+      <c r="Z30" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="65" t="s">
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="65" t="s">
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="AE30" s="66"/>
+      <c r="AE30" s="17"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -11729,44 +11730,44 @@
     </row>
     <row r="33" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="31" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="31" t="s">
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="31" t="s">
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="31" t="s">
+      <c r="N33" s="53"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="31" t="s">
+      <c r="Q33" s="53"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T33" s="32"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="29" t="s">
+      <c r="T33" s="53"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="W33" s="30"/>
+      <c r="W33" s="36"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -11790,38 +11791,38 @@
     </row>
     <row r="34" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="41" t="s">
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="U34" s="42"/>
-      <c r="V34" s="43" t="s">
+      <c r="U34" s="31"/>
+      <c r="V34" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W34" s="44"/>
+      <c r="W34" s="33"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -11845,6 +11846,202 @@
     </row>
   </sheetData>
   <mergeCells count="220">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="F34:S34"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AD30:AE30"/>
@@ -11869,202 +12066,6 @@
     <mergeCell ref="J8:O8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="F34:S34"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/src/Solution Files/Keyboard Designs.xlsx
+++ b/src/Solution Files/Keyboard Designs.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="KEYBOARDS 2" sheetId="4" r:id="rId1"/>
-    <sheet name="KEYBOARDS" sheetId="1" r:id="rId2"/>
+    <sheet name="KEYBOARDS - SpeechOnly" sheetId="6" r:id="rId1"/>
+    <sheet name="KEYBOARDS - Standard" sheetId="4" r:id="rId2"/>
     <sheet name="ICONS" sheetId="2" r:id="rId3"/>
     <sheet name="Key lists" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="363">
   <si>
     <t>A</t>
   </si>
@@ -152,15 +152,9 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>1 OF 2</t>
-  </si>
-  <si>
     <t>SYMBOLS 2:</t>
   </si>
   <si>
-    <t>2 OF 2</t>
-  </si>
-  <si>
     <t>@</t>
   </si>
   <si>
@@ -362,18 +356,6 @@
     <t>HOME</t>
   </si>
   <si>
-    <t>CUT</t>
-  </si>
-  <si>
-    <t>COPY</t>
-  </si>
-  <si>
-    <t>PASTE</t>
-  </si>
-  <si>
-    <t>SLCT ALL</t>
-  </si>
-  <si>
     <t>DEL</t>
   </si>
   <si>
@@ -414,15 +396,6 @@
   </si>
   <si>
     <t>suggestion</t>
-  </si>
-  <si>
-    <t>Output over a couple of lines. No highlighting at the moment, just scrolling text.</t>
-  </si>
-  <si>
-    <t>PublishKeys keyboard only available if Publish==true. Explain why not available otherwise.</t>
-  </si>
-  <si>
-    <t>ADD PHRS</t>
   </si>
   <si>
     <t>RETURN</t>
@@ -1135,6 +1108,9 @@
   </si>
   <si>
     <t>RE-CALIBRATE</t>
+  </si>
+  <si>
+    <t>Output over a couple of lines. No highlighting at the moment.</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1337,19 +1313,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1453,11 +1416,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1497,19 +1482,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,10 +1509,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1530,68 +1554,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1599,52 +1590,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1668,47 +1641,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5410,10 +5422,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AT9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="24" width="2.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="46" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="C3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="40"/>
+      <c r="Z3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+    </row>
+    <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="C4" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="82"/>
+      <c r="U4" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="V4" s="84"/>
+      <c r="Z4" s="10"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+    </row>
+    <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="33"/>
+      <c r="U5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="94"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+    </row>
+    <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="38"/>
+      <c r="T6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+    </row>
+    <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="21"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+    </row>
+    <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="X8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+    </row>
+    <row r="9" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="AC87" sqref="AC87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5430,44 +5874,44 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="36"/>
+      <c r="B3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="40"/>
       <c r="Z3" s="7" t="s">
         <v>40</v>
       </c>
@@ -5488,38 +5932,38 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W4" s="33"/>
+      <c r="B4" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" s="54"/>
       <c r="Z4" s="11" t="s">
         <v>39</v>
       </c>
@@ -5539,50 +5983,50 @@
       <c r="AT4" s="12"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="28" t="s">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="28" t="s">
+      <c r="R5" s="33"/>
+      <c r="S5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="28" t="s">
+      <c r="T5" s="33"/>
+      <c r="U5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="29"/>
+      <c r="V5" s="33"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Z5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA5" s="12"/>
       <c r="AH5" s="12"/>
@@ -5604,52 +6048,52 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
+      <c r="M6" s="31"/>
+      <c r="N6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23" t="s">
+      <c r="O6" s="31"/>
+      <c r="P6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23" t="s">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23" t="s">
+      <c r="S6" s="31"/>
+      <c r="T6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="61" t="s">
+      <c r="U6" s="31"/>
+      <c r="V6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="62"/>
+      <c r="W6" s="26"/>
       <c r="Z6" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AH6" s="12"/>
@@ -5671,50 +6115,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="72" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="73"/>
-      <c r="V7" s="72" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="73"/>
+      <c r="W7" s="21"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AH7" s="12"/>
@@ -5733,46 +6177,46 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="61" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="61" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="61" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="84" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="72" t="s">
+      <c r="Q8" s="69"/>
+      <c r="R8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W8" s="73"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W8" s="21"/>
       <c r="X8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -5832,44 +6276,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W11" s="36"/>
+      <c r="B11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="42"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W11" s="40"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AH11" s="12"/>
@@ -5890,38 +6334,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U12" s="31"/>
-      <c r="V12" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W12" s="33"/>
+      <c r="B12" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U12" s="52"/>
+      <c r="V12" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W12" s="54"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AH12" s="12"/>
@@ -5941,50 +6385,50 @@
       <c r="AV12" s="12"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39">
+      <c r="B13" s="73">
         <v>1</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39">
+      <c r="C13" s="74"/>
+      <c r="D13" s="73">
         <v>2</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="28">
+      <c r="E13" s="74"/>
+      <c r="F13" s="32">
         <v>3</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="41">
+      <c r="G13" s="33"/>
+      <c r="H13" s="75">
         <v>4</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="28">
+      <c r="I13" s="76"/>
+      <c r="J13" s="32">
         <v>5</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="28">
+      <c r="K13" s="33"/>
+      <c r="L13" s="32">
         <v>6</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28">
+      <c r="M13" s="33"/>
+      <c r="N13" s="32">
         <v>7</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28">
+      <c r="O13" s="33"/>
+      <c r="P13" s="32">
         <v>8</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="28">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="32">
         <v>9</v>
       </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="28">
+      <c r="S13" s="33"/>
+      <c r="T13" s="32">
         <v>0</v>
       </c>
-      <c r="U13" s="29"/>
-      <c r="V13" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="W13" s="23"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="W13" s="31"/>
       <c r="X13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -6007,50 +6451,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65" t="s">
+      <c r="B14" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="63"/>
+      <c r="P14" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66" t="s">
+      <c r="Q14" s="63"/>
+      <c r="R14" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="66" t="s">
+      <c r="S14" s="63"/>
+      <c r="T14" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" s="67"/>
-      <c r="T14" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="67"/>
-      <c r="V14" s="68" t="s">
+      <c r="U14" s="63"/>
+      <c r="V14" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="68"/>
+      <c r="W14" s="64"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AH14" s="12"/>
@@ -6072,55 +6516,55 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="38" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18" t="s">
+      <c r="K15" s="31"/>
+      <c r="L15" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18" t="s">
+      <c r="U15" s="29"/>
+      <c r="V15" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="18"/>
+      <c r="W15" s="29"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
@@ -6142,46 +6586,46 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="37" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="61" t="s">
+      <c r="I16" s="34"/>
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="61" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="72" t="s">
+      <c r="O16" s="26"/>
+      <c r="P16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W16" s="73"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W16" s="21"/>
       <c r="X16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -6243,49 +6687,49 @@
     </row>
     <row r="18" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" s="36"/>
+      <c r="B19" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" s="42"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" s="40"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -6313,38 +6757,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U20" s="31"/>
-      <c r="V20" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W20" s="33"/>
+      <c r="B20" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U20" s="52"/>
+      <c r="V20" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W20" s="54"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -6371,50 +6815,50 @@
       <c r="AV20" s="12"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="24" t="s">
+      <c r="B21" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="58"/>
+      <c r="J21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="58"/>
+      <c r="N21" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="24" t="s">
+      <c r="O21" s="38"/>
+      <c r="P21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="24" t="s">
+      <c r="S21" s="38"/>
+      <c r="T21" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="U21" s="25"/>
-      <c r="V21" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="W21" s="23"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="W21" s="31"/>
       <c r="X21" s="12"/>
       <c r="AT21" s="12"/>
       <c r="AU21" s="12"/>
@@ -6423,50 +6867,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23" t="s">
+      <c r="B22" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="60" t="s">
+      <c r="O22" s="27"/>
+      <c r="P22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="23" t="s">
+      <c r="S22" s="31"/>
+      <c r="T22" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="U22" s="23"/>
-      <c r="V22" s="37" t="s">
+      <c r="U22" s="31"/>
+      <c r="V22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="37"/>
+      <c r="W22" s="34"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
@@ -6487,50 +6931,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18" t="s">
+      <c r="M23" s="31"/>
+      <c r="N23" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18" t="s">
+      <c r="U23" s="29"/>
+      <c r="V23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="18"/>
+      <c r="W23" s="29"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="12"/>
@@ -6554,46 +6998,46 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="72" t="s">
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" s="27"/>
+      <c r="P24" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W24" s="73"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W24" s="21"/>
       <c r="X24" s="12"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
@@ -6652,49 +7096,49 @@
     </row>
     <row r="26" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W27" s="36"/>
+      <c r="B27" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T27" s="42"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" s="40"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
@@ -6722,38 +7166,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U28" s="31"/>
-      <c r="V28" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W28" s="33"/>
+      <c r="B28" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U28" s="52"/>
+      <c r="V28" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W28" s="54"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
@@ -6780,50 +7224,50 @@
       <c r="AV28" s="14"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="M29" s="36"/>
+      <c r="N29" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="O29" s="33"/>
+      <c r="P29" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="S29" s="33"/>
+      <c r="T29" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="I29" s="77"/>
-      <c r="J29" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="M29" s="77"/>
-      <c r="N29" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="U29" s="29"/>
-      <c r="V29" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="W29" s="29"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="W29" s="33"/>
       <c r="X29" s="14"/>
       <c r="AT29" s="14"/>
       <c r="AU29" s="14"/>
@@ -6832,50 +7276,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="U30" s="23"/>
-      <c r="V30" s="37" t="s">
+      <c r="B30" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="58"/>
+      <c r="J30" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="M30" s="58"/>
+      <c r="N30" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O30" s="38"/>
+      <c r="P30" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="U30" s="31"/>
+      <c r="V30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="37"/>
+      <c r="W30" s="34"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
@@ -6896,56 +7340,56 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" s="38"/>
+      <c r="N31" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" s="38"/>
+      <c r="P31" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18" t="s">
+      <c r="U31" s="29"/>
+      <c r="V31" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="18"/>
+      <c r="W31" s="29"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="14"/>
@@ -6967,46 +7411,46 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="72" t="s">
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W32" s="73"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W32" s="21"/>
       <c r="X32" s="14"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="14"/>
@@ -7065,38 +7509,38 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="81"/>
+      <c r="B35" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="AF35" s="14"/>
@@ -7117,27 +7561,27 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="AF36" s="14"/>
@@ -7158,38 +7602,38 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="81" t="s">
-        <v>364</v>
-      </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81" t="s">
-        <v>370</v>
-      </c>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
+      <c r="B37" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
@@ -7211,27 +7655,27 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
@@ -7292,49 +7736,49 @@
     </row>
     <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
-      <c r="B41" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T41" s="53"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W41" s="36"/>
+      <c r="B41" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" s="42"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T41" s="42"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" s="40"/>
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
@@ -7362,38 +7806,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U42" s="31"/>
-      <c r="V42" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W42" s="33"/>
+      <c r="B42" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U42" s="52"/>
+      <c r="V42" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W42" s="54"/>
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
@@ -7420,50 +7864,50 @@
       <c r="AV42" s="14"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="O43" s="25"/>
-      <c r="P43" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="S43" s="25"/>
-      <c r="T43" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="U43" s="25"/>
-      <c r="V43" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="W43" s="23"/>
+      <c r="B43" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="38"/>
+      <c r="H43" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="I43" s="58"/>
+      <c r="J43" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="M43" s="58"/>
+      <c r="N43" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="O43" s="38"/>
+      <c r="P43" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="S43" s="38"/>
+      <c r="T43" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="U43" s="38"/>
+      <c r="V43" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="W43" s="31"/>
       <c r="X43" s="14"/>
       <c r="AT43" s="14"/>
       <c r="AU43" s="14"/>
@@ -7472,50 +7916,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="M44" s="23"/>
-      <c r="N44" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="O44" s="60"/>
-      <c r="P44" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="U44" s="23"/>
-      <c r="V44" s="37" t="s">
+      <c r="B44" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M44" s="31"/>
+      <c r="N44" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O44" s="27"/>
+      <c r="P44" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="U44" s="31"/>
+      <c r="V44" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="37"/>
+      <c r="W44" s="34"/>
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="14"/>
@@ -7536,56 +7980,56 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18" t="s">
+      <c r="U45" s="29"/>
+      <c r="V45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="18"/>
+      <c r="W45" s="29"/>
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
       <c r="AE45" s="14"/>
       <c r="AF45" s="14"/>
       <c r="AG45" s="14"/>
@@ -7607,46 +8051,46 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="I46" s="60"/>
-      <c r="J46" s="61" t="s">
+      <c r="G46" s="30"/>
+      <c r="H46" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="O46" s="60"/>
-      <c r="P46" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="72" t="s">
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" s="27"/>
+      <c r="P46" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W46" s="73"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W46" s="21"/>
       <c r="X46" s="14"/>
       <c r="AE46" s="14"/>
       <c r="AF46" s="14"/>
@@ -7705,49 +8149,49 @@
     </row>
     <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N49" s="53"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T49" s="53"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W49" s="36"/>
+      <c r="B49" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" s="42"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N49" s="42"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T49" s="42"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W49" s="40"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
@@ -7775,38 +8219,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U50" s="31"/>
-      <c r="V50" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W50" s="33"/>
+      <c r="B50" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U50" s="52"/>
+      <c r="V50" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W50" s="54"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
       <c r="AA50" s="14"/>
@@ -7833,50 +8277,50 @@
       <c r="AV50" s="14"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="G51" s="77"/>
-      <c r="H51" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="K51" s="25"/>
-      <c r="L51" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="O51" s="29"/>
-      <c r="P51" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="S51" s="29"/>
-      <c r="T51" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="U51" s="29"/>
-      <c r="V51" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="W51" s="23"/>
+      <c r="B51" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="J51" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K51" s="38"/>
+      <c r="L51" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="M51" s="38"/>
+      <c r="N51" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O51" s="33"/>
+      <c r="P51" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="S51" s="33"/>
+      <c r="T51" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="U51" s="33"/>
+      <c r="V51" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="W51" s="31"/>
       <c r="X51" s="14"/>
       <c r="AT51" s="14"/>
       <c r="AU51" s="14"/>
@@ -7885,30 +8329,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="37" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="37"/>
+      <c r="W52" s="34"/>
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="14"/>
@@ -7929,42 +8373,42 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18" t="s">
+      <c r="U53" s="29"/>
+      <c r="V53" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="18"/>
+      <c r="W53" s="29"/>
       <c r="Y53" s="14"/>
       <c r="Z53" s="14"/>
       <c r="AA53" s="14"/>
       <c r="AB53" s="14"/>
-      <c r="AC53" s="64"/>
-      <c r="AD53" s="64"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
       <c r="AE53" s="14"/>
       <c r="AF53" s="14"/>
       <c r="AG53" s="14"/>
@@ -7986,40 +8430,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55" t="s">
+      <c r="E54" s="30"/>
+      <c r="F54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="61" t="s">
+      <c r="G54" s="30"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="72" t="s">
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W54" s="73"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W54" s="21"/>
       <c r="X54" s="14"/>
       <c r="Z54" s="14"/>
       <c r="AA54" s="14"/>
@@ -8081,49 +8525,49 @@
     </row>
     <row r="56" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="53"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N57" s="53"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T57" s="53"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W57" s="36"/>
+      <c r="B57" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" s="42"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57" s="42"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T57" s="42"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W57" s="40"/>
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="14"/>
@@ -8151,38 +8595,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U58" s="31"/>
-      <c r="V58" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W58" s="33"/>
+      <c r="B58" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="45"/>
+      <c r="D58" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U58" s="52"/>
+      <c r="V58" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W58" s="54"/>
       <c r="Y58" s="14"/>
       <c r="Z58" s="14"/>
       <c r="AA58" s="14"/>
@@ -8209,50 +8653,50 @@
       <c r="AV58" s="14"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="36"/>
+      <c r="D59" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="36"/>
+      <c r="H59" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" s="38"/>
+      <c r="L59" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M59" s="38"/>
+      <c r="N59" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O59" s="33"/>
+      <c r="P59" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="S59" s="33"/>
+      <c r="T59" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="M59" s="25"/>
-      <c r="N59" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="U59" s="29"/>
-      <c r="V59" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="W59" s="23"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="W59" s="31"/>
       <c r="X59" s="14"/>
       <c r="AT59" s="14"/>
       <c r="AU59" s="14"/>
@@ -8261,50 +8705,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="I60" s="31"/>
+      <c r="J60" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K60" s="38"/>
+      <c r="L60" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M60" s="31"/>
+      <c r="N60" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="O60" s="27"/>
+      <c r="P60" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="K60" s="25"/>
-      <c r="L60" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="M60" s="23"/>
-      <c r="N60" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="O60" s="60"/>
-      <c r="P60" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="U60" s="23"/>
-      <c r="V60" s="37" t="s">
+      <c r="U60" s="31"/>
+      <c r="V60" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="37"/>
+      <c r="W60" s="34"/>
       <c r="AA60" s="14"/>
       <c r="AB60" s="14"/>
       <c r="AC60" s="14"/>
@@ -8325,56 +8769,56 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18" t="s">
+      <c r="U61" s="29"/>
+      <c r="V61" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="18"/>
+      <c r="W61" s="29"/>
       <c r="Y61" s="14"/>
       <c r="Z61" s="14"/>
       <c r="AA61" s="14"/>
       <c r="AB61" s="14"/>
-      <c r="AC61" s="64"/>
-      <c r="AD61" s="64"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="28"/>
       <c r="AE61" s="14"/>
       <c r="AF61" s="14"/>
       <c r="AG61" s="14"/>
@@ -8396,46 +8840,46 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55" t="s">
+      <c r="C62" s="30"/>
+      <c r="D62" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55" t="s">
+      <c r="E62" s="30"/>
+      <c r="F62" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="55"/>
-      <c r="H62" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="I62" s="60"/>
-      <c r="J62" s="61" t="s">
+      <c r="G62" s="30"/>
+      <c r="H62" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I62" s="27"/>
+      <c r="J62" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="60" t="s">
-        <v>303</v>
-      </c>
-      <c r="O62" s="60"/>
-      <c r="P62" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="72" t="s">
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="O62" s="27"/>
+      <c r="P62" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="75"/>
-      <c r="T62" s="75"/>
-      <c r="U62" s="75"/>
-      <c r="V62" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W62" s="73"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W62" s="21"/>
       <c r="X62" s="14"/>
       <c r="AE62" s="14"/>
       <c r="AF62" s="14"/>
@@ -8494,49 +8938,49 @@
     </row>
     <row r="64" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" s="53"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K65" s="53"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N65" s="53"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T65" s="53"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W65" s="36"/>
+      <c r="B65" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="42"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K65" s="42"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N65" s="42"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T65" s="42"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W65" s="40"/>
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
@@ -8564,38 +9008,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
-      <c r="B66" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U66" s="31"/>
-      <c r="V66" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W66" s="33"/>
+      <c r="B66" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="45"/>
+      <c r="D66" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="47"/>
+      <c r="F66" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U66" s="52"/>
+      <c r="V66" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W66" s="54"/>
       <c r="Y66" s="14"/>
       <c r="Z66" s="14"/>
       <c r="AA66" s="14"/>
@@ -8622,50 +9066,50 @@
       <c r="AV66" s="14"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" s="36"/>
+      <c r="H67" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="I67" s="33"/>
+      <c r="J67" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="K67" s="38"/>
+      <c r="L67" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M67" s="38"/>
+      <c r="N67" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O67" s="33"/>
+      <c r="P67" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="S67" s="33"/>
+      <c r="T67" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="76" t="s">
-        <v>307</v>
-      </c>
-      <c r="G67" s="77"/>
-      <c r="H67" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="K67" s="25"/>
-      <c r="L67" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="M67" s="25"/>
-      <c r="N67" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="O67" s="29"/>
-      <c r="P67" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="S67" s="29"/>
-      <c r="T67" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="U67" s="29"/>
-      <c r="V67" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="W67" s="23"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="W67" s="31"/>
       <c r="X67" s="14"/>
       <c r="AT67" s="14"/>
       <c r="AU67" s="14"/>
@@ -8674,50 +9118,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23" t="s">
+      <c r="B68" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I68" s="31"/>
+      <c r="J68" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K68" s="38"/>
+      <c r="L68" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="M68" s="31"/>
+      <c r="N68" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="O68" s="27"/>
+      <c r="P68" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="K68" s="25"/>
-      <c r="L68" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="M68" s="23"/>
-      <c r="N68" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="O68" s="60"/>
-      <c r="P68" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="U68" s="23"/>
-      <c r="V68" s="37" t="s">
+      <c r="U68" s="31"/>
+      <c r="V68" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="37"/>
+      <c r="W68" s="34"/>
       <c r="AA68" s="14"/>
       <c r="AB68" s="14"/>
       <c r="AC68" s="14"/>
@@ -8738,56 +9182,56 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18" t="s">
+      <c r="U69" s="29"/>
+      <c r="V69" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="18"/>
+      <c r="W69" s="29"/>
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
       <c r="AA69" s="14"/>
       <c r="AB69" s="14"/>
-      <c r="AC69" s="64"/>
-      <c r="AD69" s="64"/>
+      <c r="AC69" s="28"/>
+      <c r="AD69" s="28"/>
       <c r="AE69" s="14"/>
       <c r="AF69" s="14"/>
       <c r="AG69" s="14"/>
@@ -8809,46 +9253,46 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55" t="s">
+      <c r="C70" s="30"/>
+      <c r="D70" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55" t="s">
+      <c r="E70" s="30"/>
+      <c r="F70" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="55"/>
-      <c r="H70" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="I70" s="60"/>
-      <c r="J70" s="61" t="s">
+      <c r="G70" s="30"/>
+      <c r="H70" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="I70" s="27"/>
+      <c r="J70" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="O70" s="80"/>
-      <c r="P70" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="72" t="s">
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="O70" s="18"/>
+      <c r="P70" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W70" s="73"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W70" s="21"/>
       <c r="X70" s="14"/>
       <c r="AE70" s="14"/>
       <c r="AF70" s="14"/>
@@ -8907,49 +9351,49 @@
     </row>
     <row r="72" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
-      <c r="B73" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E73" s="53"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H73" s="53"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K73" s="53"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N73" s="53"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T73" s="53"/>
-      <c r="U73" s="54"/>
-      <c r="V73" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W73" s="36"/>
+      <c r="B73" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K73" s="42"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N73" s="42"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T73" s="42"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W73" s="40"/>
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
       <c r="AA73" s="14"/>
@@ -8977,38 +9421,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
-      <c r="B74" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
-      <c r="Q74" s="48"/>
-      <c r="R74" s="48"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U74" s="31"/>
-      <c r="V74" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W74" s="33"/>
+      <c r="B74" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="45"/>
+      <c r="D74" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="47"/>
+      <c r="F74" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U74" s="52"/>
+      <c r="V74" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W74" s="54"/>
       <c r="Y74" s="14"/>
       <c r="Z74" s="14"/>
       <c r="AA74" s="14"/>
@@ -9035,50 +9479,50 @@
       <c r="AV74" s="14"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="G75" s="33"/>
+      <c r="H75" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="I75" s="33"/>
+      <c r="J75" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K75" s="33"/>
+      <c r="L75" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="M75" s="33"/>
+      <c r="N75" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="O75" s="33"/>
+      <c r="P75" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="S75" s="31"/>
+      <c r="T75" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="K75" s="29"/>
-      <c r="L75" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="M75" s="29"/>
-      <c r="N75" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="O75" s="29"/>
-      <c r="P75" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="W75" s="23"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="W75" s="31"/>
       <c r="X75" s="14"/>
       <c r="AT75" s="14"/>
       <c r="AU75" s="14"/>
@@ -9087,50 +9531,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E76" s="38"/>
+      <c r="F76" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G76" s="38"/>
+      <c r="H76" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="I76" s="38"/>
+      <c r="J76" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="K76" s="56"/>
+      <c r="L76" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="M76" s="38"/>
+      <c r="N76" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="E76" s="25"/>
-      <c r="F76" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="78" t="s">
-        <v>352</v>
-      </c>
-      <c r="K76" s="79"/>
-      <c r="L76" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="M76" s="25"/>
-      <c r="N76" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="U76" s="23"/>
-      <c r="V76" s="37" t="s">
+      <c r="U76" s="31"/>
+      <c r="V76" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="37"/>
+      <c r="W76" s="34"/>
       <c r="AA76" s="14"/>
       <c r="AB76" s="14"/>
       <c r="AC76" s="14"/>
@@ -9151,52 +9595,52 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="K77" s="79"/>
-      <c r="L77" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="M77" s="79"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77" s="38"/>
+      <c r="F77" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="G77" s="38"/>
+      <c r="H77" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="I77" s="38"/>
+      <c r="J77" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="K77" s="56"/>
+      <c r="L77" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="M77" s="56"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="18"/>
-      <c r="V77" s="18" t="s">
+      <c r="U77" s="29"/>
+      <c r="V77" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="18"/>
+      <c r="W77" s="29"/>
       <c r="Y77" s="14"/>
       <c r="Z77" s="14"/>
       <c r="AA77" s="14"/>
       <c r="AB77" s="14"/>
-      <c r="AC77" s="64"/>
-      <c r="AD77" s="64"/>
+      <c r="AC77" s="28"/>
+      <c r="AD77" s="28"/>
       <c r="AE77" s="14"/>
       <c r="AF77" s="14"/>
       <c r="AG77" s="14"/>
@@ -9218,40 +9662,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55" t="s">
+      <c r="C78" s="30"/>
+      <c r="D78" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55" t="s">
+      <c r="E78" s="30"/>
+      <c r="F78" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="55"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="61" t="s">
+      <c r="G78" s="30"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="80"/>
-      <c r="O78" s="80"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="72" t="s">
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="75"/>
-      <c r="T78" s="75"/>
-      <c r="U78" s="75"/>
-      <c r="V78" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W78" s="73"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W78" s="21"/>
       <c r="X78" s="14"/>
       <c r="Z78" s="14"/>
       <c r="AA78" s="14"/>
@@ -9313,50 +9757,50 @@
     </row>
     <row r="80" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="15" t="s">
+      <c r="F81" s="78"/>
+      <c r="G81" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15" t="s">
+      <c r="H81" s="78"/>
+      <c r="I81" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15" t="s">
+      <c r="J81" s="78"/>
+      <c r="K81" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15" t="s">
+      <c r="L81" s="78"/>
+      <c r="M81" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15" t="s">
+      <c r="N81" s="78"/>
+      <c r="O81" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15" t="s">
+      <c r="P81" s="78"/>
+      <c r="Q81" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15" t="s">
+      <c r="R81" s="78"/>
+      <c r="S81" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15" t="s">
+      <c r="T81" s="78"/>
+      <c r="U81" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V81" s="15"/>
+      <c r="V81" s="78"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
@@ -9365,183 +9809,183 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="21"/>
-      <c r="F82" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="I82" s="57"/>
-      <c r="J82" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K82" s="17"/>
-      <c r="L82" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="M82" s="17"/>
-      <c r="N82" s="16" t="s">
+      <c r="B82" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="23"/>
+      <c r="F82" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="70"/>
+      <c r="J82" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="K82" s="72"/>
+      <c r="L82" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="M82" s="72"/>
+      <c r="N82" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="O82" s="72"/>
+      <c r="P82" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="17"/>
-      <c r="P82" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="S82" s="21"/>
-      <c r="T82" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="U82" s="21"/>
-      <c r="V82" s="22" t="s">
+      <c r="Q82" s="23"/>
+      <c r="R82" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S82" s="23"/>
+      <c r="T82" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U82" s="23"/>
+      <c r="V82" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="22"/>
+      <c r="W82" s="80"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G83" s="17"/>
-      <c r="H83" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K83" s="21"/>
-      <c r="L83" s="20" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="72"/>
+      <c r="F83" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G83" s="72"/>
+      <c r="H83" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" s="72"/>
+      <c r="J83" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K83" s="23"/>
+      <c r="L83" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M83" s="23"/>
+      <c r="N83" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M83" s="21"/>
-      <c r="N83" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O83" s="21"/>
-      <c r="P83" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18" t="s">
+      <c r="O83" s="23"/>
+      <c r="P83" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="18"/>
-      <c r="V83" s="19" t="s">
+      <c r="U83" s="29"/>
+      <c r="V83" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="19"/>
+      <c r="W83" s="79"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55" t="s">
+      <c r="C84" s="30"/>
+      <c r="D84" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55" t="s">
+      <c r="E84" s="30"/>
+      <c r="F84" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="55"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="61" t="s">
+      <c r="G84" s="30"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="63"/>
-      <c r="L84" s="63"/>
-      <c r="M84" s="63"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="72" t="s">
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="75"/>
-      <c r="T84" s="75"/>
-      <c r="U84" s="75"/>
-      <c r="V84" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="W84" s="73"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="W84" s="21"/>
       <c r="X84" s="12"/>
     </row>
     <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
-      <c r="B87" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="53"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H87" s="53"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K87" s="53"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N87" s="53"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T87" s="53"/>
-      <c r="U87" s="54"/>
-      <c r="V87" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W87" s="36"/>
+      <c r="B87" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="42"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K87" s="42"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N87" s="42"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T87" s="42"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W87" s="40"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
       <c r="AB87" s="12"/>
@@ -9565,38 +10009,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
-      <c r="B88" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88" s="44"/>
-      <c r="D88" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="46"/>
-      <c r="F88" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="48"/>
-      <c r="S88" s="49"/>
-      <c r="T88" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U88" s="31"/>
-      <c r="V88" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W88" s="33"/>
+      <c r="B88" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="45"/>
+      <c r="D88" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="47"/>
+      <c r="F88" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="50"/>
+      <c r="T88" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U88" s="52"/>
+      <c r="V88" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="W88" s="54"/>
       <c r="Z88" s="12"/>
       <c r="AA88" s="12"/>
       <c r="AB88" s="12"/>
@@ -9620,39 +10064,500 @@
     </row>
   </sheetData>
   <mergeCells count="562">
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="AC61:AD61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="AC77:AD77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
     <mergeCell ref="AA37:AB37"/>
     <mergeCell ref="T69:U69"/>
     <mergeCell ref="V69:W69"/>
@@ -9677,2395 +10582,50 @@
     <mergeCell ref="V68:W68"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R84:U84"/>
     <mergeCell ref="T77:U77"/>
     <mergeCell ref="V77:W77"/>
-    <mergeCell ref="AC77:AD77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
     <mergeCell ref="T75:U75"/>
     <mergeCell ref="V75:W75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
     <mergeCell ref="T76:U76"/>
     <mergeCell ref="V76:W76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="AC61:AD61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
     <mergeCell ref="S81:T81"/>
     <mergeCell ref="U81:V81"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:S20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="24" width="2.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="49" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="36"/>
-      <c r="Z3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-    </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W4" s="33"/>
-      <c r="Z4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="10"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-    </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="65"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Z5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-    </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" s="62"/>
-      <c r="Z6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-    </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="73"/>
-      <c r="V7" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="73"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-    </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-    </row>
-    <row r="9" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-    </row>
-    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W11" s="36"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-    </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U12" s="31"/>
-      <c r="V12" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W12" s="33"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-    </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="65">
-        <v>1</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65">
-        <v>2</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65">
-        <v>3</v>
-      </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65">
-        <v>4</v>
-      </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65">
-        <v>5</v>
-      </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65">
-        <v>6</v>
-      </c>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65">
-        <v>7</v>
-      </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65">
-        <v>8</v>
-      </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65">
-        <v>9</v>
-      </c>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65">
-        <v>0</v>
-      </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-    </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" s="67"/>
-      <c r="T14" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="67"/>
-      <c r="V14" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14" s="68"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-    </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="W15" s="18"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-    </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-    </row>
-    <row r="17" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-    </row>
-    <row r="18" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" s="36"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-    </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U20" s="31"/>
-      <c r="V20" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W20" s="33"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-    </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="R21" s="25"/>
-      <c r="S21" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-    </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="U22" s="23"/>
-      <c r="V22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="W22" s="37"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-    </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="W23" s="18"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-    </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S24" s="23"/>
-      <c r="T24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-    </row>
-    <row r="25" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V27" s="15"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-    </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" s="59"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="U28" s="21"/>
-      <c r="V28" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W28" s="22"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-    </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="W29" s="19"/>
-      <c r="Z29" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
-    </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="56"/>
-      <c r="J30" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="W30" s="56"/>
-      <c r="X30" s="1"/>
-      <c r="Z30" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE30" s="17"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-    </row>
-    <row r="32" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="T33" s="53"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W33" s="36"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-    </row>
-    <row r="34" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="U34" s="31"/>
-      <c r="V34" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="W34" s="33"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="220">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="F34:S34"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12111,25 +10671,25 @@
     </row>
     <row r="5" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="1"/>
@@ -12137,37 +10697,37 @@
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -12192,187 +10752,187 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -12393,7 +10953,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B1" t="str">
         <f>"case '" &amp; A1 &amp; "': case'" &amp; UPPER(A1) &amp; "': return new VirtualKeyCodeSet {KeyCodes = new[] {VirtualKeyCode.VK_" &amp; UPPER(A1) &amp; "}};"</f>
@@ -12402,7 +10962,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B36" si="0">"case '" &amp; A2 &amp; "': case'" &amp; UPPER(A2) &amp; "': return new VirtualKeyCodeSet {KeyCodes = new[] {VirtualKeyCode.VK_" &amp; UPPER(A2) &amp; "}};"</f>
@@ -12411,7 +10971,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -12420,7 +10980,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -12429,7 +10989,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -12438,7 +10998,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -12447,7 +11007,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -12456,7 +11016,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -12465,7 +11025,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -12474,7 +11034,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -12483,7 +11043,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -12492,7 +11052,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -12501,7 +11061,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -12510,7 +11070,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -12519,7 +11079,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -12528,7 +11088,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -12537,7 +11097,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -12546,7 +11106,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -12555,7 +11115,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -12564,7 +11124,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -12573,7 +11133,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -12582,7 +11142,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -12591,7 +11151,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -12600,7 +11160,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -12609,7 +11169,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -12618,7 +11178,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>

--- a/src/Solution Files/Keyboard Designs.xlsx
+++ b/src/Solution Files/Keyboard Designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="345">
   <si>
     <t>A</t>
   </si>
@@ -931,6 +931,129 @@
   </si>
   <si>
     <t>Output over a couple of lines. No highlighting at the moment.</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>ULB</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>URB</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>DLB</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DRB</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>MOVE:</t>
+  </si>
+  <si>
+    <t>RESIZE:</t>
+  </si>
+  <si>
+    <t>EUL</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>EDL</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>EDR</t>
+  </si>
+  <si>
+    <t>EULB</t>
+  </si>
+  <si>
+    <t>EUB</t>
+  </si>
+  <si>
+    <t>EURB</t>
+  </si>
+  <si>
+    <t>ELB</t>
+  </si>
+  <si>
+    <t>EDLB</t>
+  </si>
+  <si>
+    <t>EDB</t>
+  </si>
+  <si>
+    <t>EDRB</t>
+  </si>
+  <si>
+    <t>ERB</t>
+  </si>
+  <si>
+    <t>SUL</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SDL</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SDR</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SU</t>
   </si>
 </sst>
 </file>
@@ -1295,6 +1418,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,39 +1511,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,37 +1523,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,131 +1625,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1853,38 +1976,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="12" t="s">
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="13"/>
+      <c r="V3" s="35"/>
       <c r="Z3" s="11"/>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11"/>
@@ -1902,36 +2025,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="14" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="16" t="s">
+      <c r="T4" s="37"/>
+      <c r="U4" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="V4" s="17"/>
+      <c r="V4" s="39"/>
       <c r="Z4" s="7"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
@@ -1948,46 +2071,46 @@
       <c r="AQ4" s="11"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="43" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="43" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="29" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="45"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Z5" s="11"/>
@@ -2010,46 +2133,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="29" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="29" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="29" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="29" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="29" t="s">
+      <c r="S6" s="17"/>
+      <c r="T6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="31"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
       <c r="X6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
@@ -2069,46 +2192,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="42" t="s">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
       <c r="X7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
@@ -2126,38 +2249,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="39" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="39" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="25" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="24"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="22"/>
       <c r="X8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -2207,29 +2330,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2246,17 +2357,29 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2265,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW88"/>
+  <dimension ref="A2:AW98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:W84"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2285,44 +2408,44 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="18" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="18" t="s">
+      <c r="Q3" s="41"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="12" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="13"/>
+      <c r="W3" s="35"/>
       <c r="Z3" s="5" t="s">
         <v>40</v>
       </c>
@@ -2343,38 +2466,38 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="56" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="58" t="s">
+      <c r="U4" s="63"/>
+      <c r="V4" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="59"/>
+      <c r="W4" s="65"/>
       <c r="Z4" s="8" t="s">
         <v>39</v>
       </c>
@@ -2394,46 +2517,46 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="43" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="43" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="43" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="44"/>
+      <c r="V5" s="13"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Z5" s="3" t="s">
@@ -2459,50 +2582,50 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="39" t="s">
+      <c r="U6" s="18"/>
+      <c r="V6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="40"/>
+      <c r="W6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>88</v>
       </c>
@@ -2526,50 +2649,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="42" t="s">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="22"/>
+      <c r="V7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="24"/>
+      <c r="W7" s="22"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AH7" s="9"/>
@@ -2588,46 +2711,46 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="39" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="39" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="25" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="23" t="s">
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W8" s="24"/>
+      <c r="W8" s="22"/>
       <c r="X8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -2687,44 +2810,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="18" t="s">
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="18" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="18" t="s">
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="12" t="s">
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="13"/>
+      <c r="W11" s="35"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AH11" s="9"/>
@@ -2745,38 +2868,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="56" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="57"/>
-      <c r="V12" s="58" t="s">
+      <c r="U12" s="63"/>
+      <c r="V12" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="W12" s="65"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AH12" s="9"/>
@@ -2796,50 +2919,50 @@
       <c r="AV12" s="9"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63">
+      <c r="B13" s="83">
         <v>1</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="63">
+      <c r="C13" s="84"/>
+      <c r="D13" s="83">
         <v>2</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="43">
+      <c r="E13" s="84"/>
+      <c r="F13" s="12">
         <v>3</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="65">
+      <c r="G13" s="13"/>
+      <c r="H13" s="85">
         <v>4</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="43">
+      <c r="I13" s="86"/>
+      <c r="J13" s="12">
         <v>5</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="43">
+      <c r="K13" s="13"/>
+      <c r="L13" s="12">
         <v>6</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="43">
+      <c r="M13" s="13"/>
+      <c r="N13" s="12">
         <v>7</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="43">
+      <c r="O13" s="13"/>
+      <c r="P13" s="12">
         <v>8</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="43">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="12">
         <v>9</v>
       </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="43">
+      <c r="S13" s="13"/>
+      <c r="T13" s="12">
         <v>0</v>
       </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="22" t="s">
+      <c r="U13" s="13"/>
+      <c r="V13" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="22"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2862,50 +2985,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="81" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="77" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="83" t="s">
+      <c r="G14" s="72"/>
+      <c r="H14" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77" t="s">
+      <c r="I14" s="72"/>
+      <c r="J14" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77" t="s">
+      <c r="K14" s="72"/>
+      <c r="L14" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="77"/>
-      <c r="N14" s="78" t="s">
+      <c r="M14" s="72"/>
+      <c r="N14" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="79"/>
-      <c r="P14" s="78" t="s">
+      <c r="O14" s="74"/>
+      <c r="P14" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="78" t="s">
+      <c r="Q14" s="74"/>
+      <c r="R14" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="79"/>
-      <c r="T14" s="78" t="s">
+      <c r="S14" s="74"/>
+      <c r="T14" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80" t="s">
+      <c r="U14" s="74"/>
+      <c r="V14" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="80"/>
+      <c r="W14" s="75"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AH14" s="9"/>
@@ -2927,55 +3050,55 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="62" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="62" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="62" t="s">
+      <c r="M15" s="18"/>
+      <c r="N15" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22" t="s">
+      <c r="O15" s="18"/>
+      <c r="P15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="42" t="s">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42" t="s">
+      <c r="S15" s="19"/>
+      <c r="T15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42" t="s">
+      <c r="U15" s="19"/>
+      <c r="V15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="42"/>
+      <c r="W15" s="19"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -2997,46 +3120,46 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="39" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="39" t="s">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="60" t="s">
+      <c r="O16" s="32"/>
+      <c r="P16" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="23" t="s">
+      <c r="Q16" s="87"/>
+      <c r="R16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="23" t="s">
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W16" s="24"/>
+      <c r="W16" s="22"/>
       <c r="X16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -3103,44 +3226,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="18" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="18" t="s">
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="18" t="s">
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="18" t="s">
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T19" s="19"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="12" t="s">
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="13"/>
+      <c r="W19" s="35"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -3168,38 +3291,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="56" t="s">
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="57"/>
-      <c r="V20" s="58" t="s">
+      <c r="U20" s="63"/>
+      <c r="V20" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="59"/>
+      <c r="W20" s="65"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -3226,50 +3349,50 @@
       <c r="AV20" s="9"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="54" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="29" t="s">
+      <c r="I21" s="69"/>
+      <c r="J21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="54" t="s">
+      <c r="K21" s="17"/>
+      <c r="L21" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="55"/>
-      <c r="N21" s="29" t="s">
+      <c r="M21" s="69"/>
+      <c r="N21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="29" t="s">
+      <c r="O21" s="17"/>
+      <c r="P21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="29" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="31"/>
-      <c r="T21" s="29" t="s">
+      <c r="S21" s="17"/>
+      <c r="T21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="31"/>
-      <c r="V21" s="22" t="s">
+      <c r="U21" s="17"/>
+      <c r="V21" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="22"/>
+      <c r="W21" s="18"/>
       <c r="X21" s="9"/>
       <c r="AT21" s="9"/>
       <c r="AU21" s="9"/>
@@ -3278,50 +3401,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="75" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="75"/>
-      <c r="P22" s="22" t="s">
+      <c r="O22" s="52"/>
+      <c r="P22" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22" t="s">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22" t="s">
+      <c r="S22" s="18"/>
+      <c r="T22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="22"/>
-      <c r="V22" s="73" t="s">
+      <c r="U22" s="18"/>
+      <c r="V22" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="73"/>
+      <c r="W22" s="51"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -3342,50 +3465,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="29" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22" t="s">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22" t="s">
+      <c r="M23" s="18"/>
+      <c r="N23" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22" t="s">
+      <c r="O23" s="18"/>
+      <c r="P23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="42" t="s">
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42" t="s">
+      <c r="S23" s="19"/>
+      <c r="T23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42" t="s">
+      <c r="U23" s="19"/>
+      <c r="V23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="42"/>
+      <c r="W23" s="19"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="9"/>
@@ -3409,46 +3532,46 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72" t="s">
+      <c r="E24" s="57"/>
+      <c r="F24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="75" t="s">
+      <c r="G24" s="57"/>
+      <c r="H24" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="39" t="s">
+      <c r="I24" s="52"/>
+      <c r="J24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="75" t="s">
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="75"/>
-      <c r="P24" s="22" t="s">
+      <c r="O24" s="52"/>
+      <c r="P24" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23" t="s">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="23" t="s">
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W24" s="24"/>
+      <c r="W24" s="22"/>
       <c r="X24" s="9"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
@@ -3512,44 +3635,44 @@
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="18" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="18" t="s">
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="18" t="s">
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="18" t="s">
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="19"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="12" t="s">
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="13"/>
+      <c r="W27" s="35"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -3577,38 +3700,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="60"/>
+      <c r="F28" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="56" t="s">
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="57"/>
-      <c r="V28" s="58" t="s">
+      <c r="U28" s="63"/>
+      <c r="V28" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="59"/>
+      <c r="W28" s="65"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
@@ -3635,50 +3758,50 @@
       <c r="AV28" s="10"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="85" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="43" t="s">
+      <c r="I29" s="54"/>
+      <c r="J29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="85" t="s">
+      <c r="K29" s="13"/>
+      <c r="L29" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="86"/>
-      <c r="N29" s="43" t="s">
+      <c r="M29" s="54"/>
+      <c r="N29" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="43" t="s">
+      <c r="O29" s="13"/>
+      <c r="P29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="43" t="s">
+      <c r="Q29" s="13"/>
+      <c r="R29" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="43" t="s">
+      <c r="S29" s="13"/>
+      <c r="T29" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="44"/>
-      <c r="V29" s="43" t="s">
+      <c r="U29" s="13"/>
+      <c r="V29" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="W29" s="44"/>
+      <c r="W29" s="13"/>
       <c r="X29" s="10"/>
       <c r="AT29" s="10"/>
       <c r="AU29" s="10"/>
@@ -3687,50 +3810,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="29" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="29" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="54" t="s">
+      <c r="G30" s="17"/>
+      <c r="H30" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="29" t="s">
+      <c r="I30" s="69"/>
+      <c r="J30" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="54" t="s">
+      <c r="K30" s="17"/>
+      <c r="L30" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="29" t="s">
+      <c r="M30" s="69"/>
+      <c r="N30" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="29" t="s">
+      <c r="O30" s="17"/>
+      <c r="P30" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="22" t="s">
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22" t="s">
+      <c r="S30" s="18"/>
+      <c r="T30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="U30" s="22"/>
-      <c r="V30" s="73" t="s">
+      <c r="U30" s="18"/>
+      <c r="V30" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="73"/>
+      <c r="W30" s="51"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
@@ -3751,56 +3874,56 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22" t="s">
+      <c r="I31" s="18"/>
+      <c r="J31" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="29" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="29" t="s">
+      <c r="M31" s="17"/>
+      <c r="N31" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="31"/>
-      <c r="P31" s="29" t="s">
+      <c r="O31" s="17"/>
+      <c r="P31" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="42" t="s">
+      <c r="Q31" s="17"/>
+      <c r="R31" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42" t="s">
+      <c r="S31" s="19"/>
+      <c r="T31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42" t="s">
+      <c r="U31" s="19"/>
+      <c r="V31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="42"/>
+      <c r="W31" s="19"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
-      <c r="AC31" s="76"/>
-      <c r="AD31" s="76"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
@@ -3822,46 +3945,46 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72" t="s">
+      <c r="E32" s="57"/>
+      <c r="F32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="75" t="s">
+      <c r="G32" s="57"/>
+      <c r="H32" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="39" t="s">
+      <c r="I32" s="52"/>
+      <c r="J32" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="75" t="s">
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75" t="s">
+      <c r="O32" s="52"/>
+      <c r="P32" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="23" t="s">
+      <c r="Q32" s="52"/>
+      <c r="R32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="23" t="s">
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W32" s="24"/>
+      <c r="W32" s="22"/>
       <c r="X32" s="10"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
@@ -3925,33 +4048,33 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="60" t="s">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="60" t="s">
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="AF35" s="10"/>
@@ -3972,27 +4095,27 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="AF36" s="10"/>
@@ -4013,38 +4136,38 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="60" t="s">
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
@@ -4066,27 +4189,27 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
@@ -4152,44 +4275,44 @@
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="18" t="s">
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="18" t="s">
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="18" t="s">
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="18" t="s">
+      <c r="N41" s="41"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="18" t="s">
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T41" s="19"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="12" t="s">
+      <c r="T41" s="41"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="13"/>
+      <c r="W41" s="35"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
@@ -4217,38 +4340,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="60"/>
+      <c r="F42" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="56" t="s">
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="57"/>
-      <c r="V42" s="58" t="s">
+      <c r="U42" s="63"/>
+      <c r="V42" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W42" s="59"/>
+      <c r="W42" s="65"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
@@ -4275,50 +4398,50 @@
       <c r="AV42" s="10"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="29" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="54" t="s">
+      <c r="G43" s="17"/>
+      <c r="H43" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="29" t="s">
+      <c r="I43" s="69"/>
+      <c r="J43" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="54" t="s">
+      <c r="K43" s="17"/>
+      <c r="L43" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="55"/>
-      <c r="N43" s="29" t="s">
+      <c r="M43" s="69"/>
+      <c r="N43" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="31"/>
-      <c r="P43" s="29" t="s">
+      <c r="O43" s="17"/>
+      <c r="P43" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="29" t="s">
+      <c r="Q43" s="17"/>
+      <c r="R43" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="S43" s="31"/>
-      <c r="T43" s="29" t="s">
+      <c r="S43" s="17"/>
+      <c r="T43" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="31"/>
-      <c r="V43" s="22" t="s">
+      <c r="U43" s="17"/>
+      <c r="V43" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="W43" s="22"/>
+      <c r="W43" s="18"/>
       <c r="X43" s="10"/>
       <c r="AT43" s="10"/>
       <c r="AU43" s="10"/>
@@ -4327,50 +4450,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22" t="s">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22" t="s">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="75" t="s">
+      <c r="M44" s="18"/>
+      <c r="N44" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="O44" s="75"/>
-      <c r="P44" s="22" t="s">
+      <c r="O44" s="52"/>
+      <c r="P44" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22" t="s">
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22" t="s">
+      <c r="S44" s="18"/>
+      <c r="T44" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="U44" s="22"/>
-      <c r="V44" s="73" t="s">
+      <c r="U44" s="18"/>
+      <c r="V44" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="73"/>
+      <c r="W44" s="51"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
@@ -4391,56 +4514,56 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22" t="s">
+      <c r="G45" s="18"/>
+      <c r="H45" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22" t="s">
+      <c r="I45" s="18"/>
+      <c r="J45" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22" t="s">
+      <c r="K45" s="18"/>
+      <c r="L45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22" t="s">
+      <c r="M45" s="18"/>
+      <c r="N45" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22" t="s">
+      <c r="O45" s="18"/>
+      <c r="P45" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="42" t="s">
+      <c r="Q45" s="18"/>
+      <c r="R45" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42" t="s">
+      <c r="S45" s="19"/>
+      <c r="T45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42" t="s">
+      <c r="U45" s="19"/>
+      <c r="V45" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="42"/>
+      <c r="W45" s="19"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
       <c r="AG45" s="10"/>
@@ -4462,46 +4585,46 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72" t="s">
+      <c r="E46" s="57"/>
+      <c r="F46" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="72"/>
-      <c r="H46" s="75" t="s">
+      <c r="G46" s="57"/>
+      <c r="H46" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="75"/>
-      <c r="J46" s="39" t="s">
+      <c r="I46" s="52"/>
+      <c r="J46" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="75" t="s">
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="75"/>
-      <c r="P46" s="22" t="s">
+      <c r="O46" s="52"/>
+      <c r="P46" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="23" t="s">
+      <c r="Q46" s="18"/>
+      <c r="R46" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="23" t="s">
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W46" s="24"/>
+      <c r="W46" s="22"/>
       <c r="X46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
@@ -4565,44 +4688,44 @@
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="35"/>
+      <c r="D49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="18" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="18" t="s">
+      <c r="H49" s="41"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="18" t="s">
+      <c r="K49" s="41"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="18" t="s">
+      <c r="N49" s="41"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="18" t="s">
+      <c r="Q49" s="41"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T49" s="19"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="12" t="s">
+      <c r="T49" s="41"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="13"/>
+      <c r="W49" s="35"/>
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
@@ -4630,38 +4753,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69" t="s">
+      <c r="C50" s="49"/>
+      <c r="D50" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="32" t="s">
+      <c r="E50" s="60"/>
+      <c r="F50" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="56" t="s">
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="57"/>
-      <c r="V50" s="58" t="s">
+      <c r="U50" s="63"/>
+      <c r="V50" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W50" s="59"/>
+      <c r="W50" s="65"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
@@ -4688,50 +4811,50 @@
       <c r="AV50" s="10"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="43" t="s">
+      <c r="C51" s="54"/>
+      <c r="D51" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="85" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="86"/>
-      <c r="H51" s="43" t="s">
+      <c r="G51" s="54"/>
+      <c r="H51" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="44"/>
-      <c r="J51" s="29" t="s">
+      <c r="I51" s="13"/>
+      <c r="J51" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K51" s="31"/>
-      <c r="L51" s="29" t="s">
+      <c r="K51" s="17"/>
+      <c r="L51" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="M51" s="31"/>
-      <c r="N51" s="43" t="s">
+      <c r="M51" s="17"/>
+      <c r="N51" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="44"/>
-      <c r="P51" s="43" t="s">
+      <c r="O51" s="13"/>
+      <c r="P51" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="43" t="s">
+      <c r="Q51" s="13"/>
+      <c r="R51" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="S51" s="44"/>
-      <c r="T51" s="43" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="U51" s="44"/>
-      <c r="V51" s="22" t="s">
+      <c r="U51" s="13"/>
+      <c r="V51" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="W51" s="22"/>
+      <c r="W51" s="18"/>
       <c r="X51" s="10"/>
       <c r="AT51" s="10"/>
       <c r="AU51" s="10"/>
@@ -4740,30 +4863,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="73" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="73"/>
+      <c r="W52" s="51"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
@@ -4784,42 +4907,42 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="42" t="s">
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42" t="s">
+      <c r="S53" s="19"/>
+      <c r="T53" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42" t="s">
+      <c r="U53" s="19"/>
+      <c r="V53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="42"/>
+      <c r="W53" s="19"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
-      <c r="AC53" s="76"/>
-      <c r="AD53" s="76"/>
+      <c r="AC53" s="58"/>
+      <c r="AD53" s="58"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="10"/>
       <c r="AG53" s="10"/>
@@ -4841,40 +4964,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72" t="s">
+      <c r="E54" s="57"/>
+      <c r="F54" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="72"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="39" t="s">
+      <c r="G54" s="57"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="23" t="s">
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="23" t="s">
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W54" s="24"/>
+      <c r="W54" s="22"/>
       <c r="X54" s="10"/>
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
@@ -4941,44 +5064,44 @@
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="35"/>
+      <c r="D57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="18" t="s">
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="18" t="s">
+      <c r="H57" s="41"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="18" t="s">
+      <c r="K57" s="41"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N57" s="19"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="18" t="s">
+      <c r="N57" s="41"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="18" t="s">
+      <c r="Q57" s="41"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T57" s="19"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="12" t="s">
+      <c r="T57" s="41"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="13"/>
+      <c r="W57" s="35"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
@@ -5006,38 +5129,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="69" t="s">
+      <c r="C58" s="49"/>
+      <c r="D58" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="70"/>
-      <c r="F58" s="32" t="s">
+      <c r="E58" s="60"/>
+      <c r="F58" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="56" t="s">
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="57"/>
-      <c r="V58" s="58" t="s">
+      <c r="U58" s="63"/>
+      <c r="V58" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W58" s="59"/>
+      <c r="W58" s="65"/>
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
@@ -5064,50 +5187,50 @@
       <c r="AV58" s="10"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="43" t="s">
+      <c r="C59" s="54"/>
+      <c r="D59" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="85" t="s">
+      <c r="E59" s="13"/>
+      <c r="F59" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="86"/>
-      <c r="H59" s="43" t="s">
+      <c r="G59" s="54"/>
+      <c r="H59" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="44"/>
-      <c r="J59" s="29" t="s">
+      <c r="I59" s="13"/>
+      <c r="J59" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="29" t="s">
+      <c r="K59" s="17"/>
+      <c r="L59" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="31"/>
-      <c r="N59" s="43" t="s">
+      <c r="M59" s="17"/>
+      <c r="N59" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="44"/>
-      <c r="P59" s="43" t="s">
+      <c r="O59" s="13"/>
+      <c r="P59" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="43" t="s">
+      <c r="Q59" s="13"/>
+      <c r="R59" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="44"/>
-      <c r="T59" s="43" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="U59" s="44"/>
-      <c r="V59" s="22" t="s">
+      <c r="U59" s="13"/>
+      <c r="V59" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="W59" s="22"/>
+      <c r="W59" s="18"/>
       <c r="X59" s="10"/>
       <c r="AT59" s="10"/>
       <c r="AU59" s="10"/>
@@ -5116,50 +5239,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22" t="s">
+      <c r="E60" s="18"/>
+      <c r="F60" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22" t="s">
+      <c r="G60" s="18"/>
+      <c r="H60" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="29" t="s">
+      <c r="I60" s="18"/>
+      <c r="J60" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="31"/>
-      <c r="L60" s="22" t="s">
+      <c r="K60" s="17"/>
+      <c r="L60" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="M60" s="22"/>
-      <c r="N60" s="75" t="s">
+      <c r="M60" s="18"/>
+      <c r="N60" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="75"/>
-      <c r="P60" s="22" t="s">
+      <c r="O60" s="52"/>
+      <c r="P60" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22" t="s">
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22" t="s">
+      <c r="S60" s="18"/>
+      <c r="T60" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="U60" s="22"/>
-      <c r="V60" s="73" t="s">
+      <c r="U60" s="18"/>
+      <c r="V60" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="73"/>
+      <c r="W60" s="51"/>
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
@@ -5180,56 +5303,56 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22" t="s">
+      <c r="E61" s="18"/>
+      <c r="F61" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22" t="s">
+      <c r="G61" s="18"/>
+      <c r="H61" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22" t="s">
+      <c r="I61" s="18"/>
+      <c r="J61" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22" t="s">
+      <c r="K61" s="18"/>
+      <c r="L61" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22" t="s">
+      <c r="M61" s="18"/>
+      <c r="N61" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22" t="s">
+      <c r="O61" s="18"/>
+      <c r="P61" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="42" t="s">
+      <c r="Q61" s="18"/>
+      <c r="R61" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42" t="s">
+      <c r="S61" s="19"/>
+      <c r="T61" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42" t="s">
+      <c r="U61" s="19"/>
+      <c r="V61" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="42"/>
+      <c r="W61" s="19"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
-      <c r="AC61" s="76"/>
-      <c r="AD61" s="76"/>
+      <c r="AC61" s="58"/>
+      <c r="AD61" s="58"/>
       <c r="AE61" s="10"/>
       <c r="AF61" s="10"/>
       <c r="AG61" s="10"/>
@@ -5251,46 +5374,46 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72" t="s">
+      <c r="C62" s="57"/>
+      <c r="D62" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72" t="s">
+      <c r="E62" s="57"/>
+      <c r="F62" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="72"/>
-      <c r="H62" s="75" t="s">
+      <c r="G62" s="57"/>
+      <c r="H62" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="75"/>
-      <c r="J62" s="39" t="s">
+      <c r="I62" s="52"/>
+      <c r="J62" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="75" t="s">
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="O62" s="75"/>
-      <c r="P62" s="22" t="s">
+      <c r="O62" s="52"/>
+      <c r="P62" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="23" t="s">
+      <c r="Q62" s="18"/>
+      <c r="R62" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="23" t="s">
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W62" s="24"/>
+      <c r="W62" s="22"/>
       <c r="X62" s="10"/>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
@@ -5354,44 +5477,44 @@
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="35"/>
+      <c r="D65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="18" t="s">
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="18" t="s">
+      <c r="H65" s="41"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="19"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="18" t="s">
+      <c r="K65" s="41"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="19"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="18" t="s">
+      <c r="N65" s="41"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="18" t="s">
+      <c r="Q65" s="41"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T65" s="19"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="12" t="s">
+      <c r="T65" s="41"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="13"/>
+      <c r="W65" s="35"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
@@ -5419,38 +5542,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="69" t="s">
+      <c r="C66" s="49"/>
+      <c r="D66" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="32" t="s">
+      <c r="E66" s="60"/>
+      <c r="F66" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="71"/>
-      <c r="T66" s="56" t="s">
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="57"/>
-      <c r="V66" s="58" t="s">
+      <c r="U66" s="63"/>
+      <c r="V66" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W66" s="59"/>
+      <c r="W66" s="65"/>
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
       <c r="AA66" s="10"/>
@@ -5477,50 +5600,50 @@
       <c r="AV66" s="10"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="43" t="s">
+      <c r="C67" s="54"/>
+      <c r="D67" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="44"/>
-      <c r="F67" s="85" t="s">
+      <c r="E67" s="13"/>
+      <c r="F67" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="86"/>
-      <c r="H67" s="43" t="s">
+      <c r="G67" s="54"/>
+      <c r="H67" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="44"/>
-      <c r="J67" s="29" t="s">
+      <c r="I67" s="13"/>
+      <c r="J67" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="K67" s="31"/>
-      <c r="L67" s="29" t="s">
+      <c r="K67" s="17"/>
+      <c r="L67" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="31"/>
-      <c r="N67" s="43" t="s">
+      <c r="M67" s="17"/>
+      <c r="N67" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="O67" s="44"/>
-      <c r="P67" s="43" t="s">
+      <c r="O67" s="13"/>
+      <c r="P67" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="43" t="s">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="S67" s="44"/>
-      <c r="T67" s="43" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="U67" s="44"/>
-      <c r="V67" s="22" t="s">
+      <c r="U67" s="13"/>
+      <c r="V67" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="W67" s="22"/>
+      <c r="W67" s="18"/>
       <c r="X67" s="10"/>
       <c r="AT67" s="10"/>
       <c r="AU67" s="10"/>
@@ -5529,50 +5652,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22" t="s">
+      <c r="E68" s="18"/>
+      <c r="F68" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22" t="s">
+      <c r="G68" s="18"/>
+      <c r="H68" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="29" t="s">
+      <c r="I68" s="18"/>
+      <c r="J68" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="K68" s="31"/>
-      <c r="L68" s="22" t="s">
+      <c r="K68" s="17"/>
+      <c r="L68" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="M68" s="22"/>
-      <c r="N68" s="75" t="s">
+      <c r="M68" s="18"/>
+      <c r="N68" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="75"/>
-      <c r="P68" s="22" t="s">
+      <c r="O68" s="52"/>
+      <c r="P68" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22" t="s">
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22" t="s">
+      <c r="S68" s="18"/>
+      <c r="T68" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="U68" s="22"/>
-      <c r="V68" s="73" t="s">
+      <c r="U68" s="18"/>
+      <c r="V68" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="73"/>
+      <c r="W68" s="51"/>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
       <c r="AC68" s="10"/>
@@ -5593,56 +5716,56 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22" t="s">
+      <c r="E69" s="18"/>
+      <c r="F69" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22" t="s">
+      <c r="G69" s="18"/>
+      <c r="H69" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22" t="s">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22" t="s">
+      <c r="K69" s="18"/>
+      <c r="L69" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22" t="s">
+      <c r="M69" s="18"/>
+      <c r="N69" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22" t="s">
+      <c r="O69" s="18"/>
+      <c r="P69" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="42" t="s">
+      <c r="Q69" s="18"/>
+      <c r="R69" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42" t="s">
+      <c r="S69" s="19"/>
+      <c r="T69" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42" t="s">
+      <c r="U69" s="19"/>
+      <c r="V69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="42"/>
+      <c r="W69" s="19"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
-      <c r="AC69" s="76"/>
-      <c r="AD69" s="76"/>
+      <c r="AC69" s="58"/>
+      <c r="AD69" s="58"/>
       <c r="AE69" s="10"/>
       <c r="AF69" s="10"/>
       <c r="AG69" s="10"/>
@@ -5664,46 +5787,46 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72" t="s">
+      <c r="C70" s="57"/>
+      <c r="D70" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72" t="s">
+      <c r="E70" s="57"/>
+      <c r="F70" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="72"/>
-      <c r="H70" s="75" t="s">
+      <c r="G70" s="57"/>
+      <c r="H70" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="I70" s="75"/>
-      <c r="J70" s="39" t="s">
+      <c r="I70" s="52"/>
+      <c r="J70" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="90" t="s">
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="90"/>
-      <c r="P70" s="22" t="s">
+      <c r="O70" s="50"/>
+      <c r="P70" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="23" t="s">
+      <c r="Q70" s="18"/>
+      <c r="R70" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="23" t="s">
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W70" s="24"/>
+      <c r="W70" s="22"/>
       <c r="X70" s="10"/>
       <c r="AE70" s="10"/>
       <c r="AF70" s="10"/>
@@ -5767,44 +5890,44 @@
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="18" t="s">
+      <c r="C73" s="35"/>
+      <c r="D73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="18" t="s">
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="18" t="s">
+      <c r="H73" s="41"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="18" t="s">
+      <c r="K73" s="41"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="19"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="18" t="s">
+      <c r="N73" s="41"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="18" t="s">
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T73" s="19"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="12" t="s">
+      <c r="T73" s="41"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="13"/>
+      <c r="W73" s="35"/>
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
       <c r="AA73" s="10"/>
@@ -5832,38 +5955,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="69" t="s">
+      <c r="C74" s="49"/>
+      <c r="D74" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="70"/>
-      <c r="F74" s="32" t="s">
+      <c r="E74" s="60"/>
+      <c r="F74" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="56" t="s">
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="57"/>
-      <c r="V74" s="58" t="s">
+      <c r="U74" s="63"/>
+      <c r="V74" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W74" s="59"/>
+      <c r="W74" s="65"/>
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
       <c r="AA74" s="10"/>
@@ -5890,50 +6013,50 @@
       <c r="AV74" s="10"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="85" t="s">
+      <c r="B75" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="86"/>
-      <c r="D75" s="43" t="s">
+      <c r="C75" s="54"/>
+      <c r="D75" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="44"/>
-      <c r="F75" s="43" t="s">
+      <c r="E75" s="13"/>
+      <c r="F75" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="43" t="s">
+      <c r="G75" s="13"/>
+      <c r="H75" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I75" s="44"/>
-      <c r="J75" s="43" t="s">
+      <c r="I75" s="13"/>
+      <c r="J75" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="44"/>
-      <c r="L75" s="43" t="s">
+      <c r="K75" s="13"/>
+      <c r="L75" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="44"/>
-      <c r="N75" s="43" t="s">
+      <c r="M75" s="13"/>
+      <c r="N75" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="O75" s="44"/>
-      <c r="P75" s="43" t="s">
+      <c r="O75" s="13"/>
+      <c r="P75" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="22" t="s">
+      <c r="Q75" s="13"/>
+      <c r="R75" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22" t="s">
+      <c r="S75" s="18"/>
+      <c r="T75" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22" t="s">
+      <c r="U75" s="18"/>
+      <c r="V75" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="W75" s="22"/>
+      <c r="W75" s="18"/>
       <c r="X75" s="10"/>
       <c r="AT75" s="10"/>
       <c r="AU75" s="10"/>
@@ -5942,50 +6065,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="29" t="s">
+      <c r="C76" s="17"/>
+      <c r="D76" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="29" t="s">
+      <c r="E76" s="17"/>
+      <c r="F76" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="29" t="s">
+      <c r="G76" s="17"/>
+      <c r="H76" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="31"/>
-      <c r="J76" s="87" t="s">
+      <c r="I76" s="17"/>
+      <c r="J76" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="88"/>
-      <c r="L76" s="29" t="s">
+      <c r="K76" s="67"/>
+      <c r="L76" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="M76" s="31"/>
-      <c r="N76" s="22" t="s">
+      <c r="M76" s="17"/>
+      <c r="N76" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22" t="s">
+      <c r="O76" s="18"/>
+      <c r="P76" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22" t="s">
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22" t="s">
+      <c r="S76" s="18"/>
+      <c r="T76" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="U76" s="22"/>
-      <c r="V76" s="73" t="s">
+      <c r="U76" s="18"/>
+      <c r="V76" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="73"/>
+      <c r="W76" s="51"/>
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10"/>
@@ -6006,52 +6129,52 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="29" t="s">
+      <c r="C77" s="18"/>
+      <c r="D77" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="29" t="s">
+      <c r="E77" s="17"/>
+      <c r="F77" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="29" t="s">
+      <c r="G77" s="17"/>
+      <c r="H77" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="31"/>
-      <c r="J77" s="87" t="s">
+      <c r="I77" s="17"/>
+      <c r="J77" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="88"/>
-      <c r="L77" s="87" t="s">
+      <c r="K77" s="67"/>
+      <c r="L77" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="M77" s="88"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="42" t="s">
+      <c r="M77" s="67"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="42"/>
-      <c r="T77" s="42" t="s">
+      <c r="S77" s="19"/>
+      <c r="T77" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="42"/>
-      <c r="V77" s="42" t="s">
+      <c r="U77" s="19"/>
+      <c r="V77" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="42"/>
+      <c r="W77" s="19"/>
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
       <c r="AA77" s="10"/>
       <c r="AB77" s="10"/>
-      <c r="AC77" s="76"/>
-      <c r="AD77" s="76"/>
+      <c r="AC77" s="58"/>
+      <c r="AD77" s="58"/>
       <c r="AE77" s="10"/>
       <c r="AF77" s="10"/>
       <c r="AG77" s="10"/>
@@ -6073,40 +6196,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72" t="s">
+      <c r="C78" s="57"/>
+      <c r="D78" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72" t="s">
+      <c r="E78" s="57"/>
+      <c r="F78" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="72"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="39" t="s">
+      <c r="G78" s="57"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="23" t="s">
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="23" t="s">
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W78" s="24"/>
+      <c r="W78" s="22"/>
       <c r="X78" s="10"/>
       <c r="Z78" s="10"/>
       <c r="AA78" s="10"/>
@@ -6172,46 +6295,46 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49" t="s">
+      <c r="D81" s="47"/>
+      <c r="E81" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49" t="s">
+      <c r="F81" s="47"/>
+      <c r="G81" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49" t="s">
+      <c r="H81" s="47"/>
+      <c r="I81" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49" t="s">
+      <c r="J81" s="47"/>
+      <c r="K81" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49" t="s">
+      <c r="L81" s="47"/>
+      <c r="M81" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="49"/>
-      <c r="O81" s="49" t="s">
+      <c r="N81" s="47"/>
+      <c r="O81" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="49" t="s">
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="49"/>
-      <c r="S81" s="49" t="s">
+      <c r="R81" s="47"/>
+      <c r="S81" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="49"/>
-      <c r="U81" s="49" t="s">
+      <c r="T81" s="47"/>
+      <c r="U81" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="49"/>
+      <c r="V81" s="47"/>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -6220,136 +6343,136 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="52"/>
-      <c r="D82" s="51" t="s">
+      <c r="C82" s="82"/>
+      <c r="D82" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="52"/>
-      <c r="F82" s="74" t="s">
+      <c r="E82" s="82"/>
+      <c r="F82" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74" t="s">
+      <c r="G82" s="90"/>
+      <c r="H82" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="74"/>
-      <c r="J82" s="47" t="s">
+      <c r="I82" s="90"/>
+      <c r="J82" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="48"/>
-      <c r="L82" s="47" t="s">
+      <c r="K82" s="80"/>
+      <c r="L82" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="48"/>
-      <c r="N82" s="47" t="s">
+      <c r="M82" s="80"/>
+      <c r="N82" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="48"/>
-      <c r="P82" s="51" t="s">
+      <c r="O82" s="80"/>
+      <c r="P82" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="52"/>
-      <c r="R82" s="51" t="s">
+      <c r="Q82" s="82"/>
+      <c r="R82" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="52"/>
-      <c r="T82" s="51" t="s">
+      <c r="S82" s="82"/>
+      <c r="T82" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="52"/>
-      <c r="V82" s="53" t="s">
+      <c r="U82" s="82"/>
+      <c r="V82" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="53"/>
+      <c r="W82" s="89"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="47" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="47" t="s">
+      <c r="E83" s="80"/>
+      <c r="F83" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="48"/>
-      <c r="H83" s="47" t="s">
+      <c r="G83" s="80"/>
+      <c r="H83" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="48"/>
-      <c r="J83" s="51" t="s">
+      <c r="I83" s="80"/>
+      <c r="J83" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="52"/>
-      <c r="L83" s="51" t="s">
+      <c r="K83" s="82"/>
+      <c r="L83" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="52"/>
-      <c r="N83" s="51" t="s">
+      <c r="M83" s="82"/>
+      <c r="N83" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="52"/>
-      <c r="P83" s="47" t="s">
+      <c r="O83" s="82"/>
+      <c r="P83" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="42" t="s">
+      <c r="Q83" s="80"/>
+      <c r="R83" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="42"/>
-      <c r="T83" s="42" t="s">
+      <c r="S83" s="19"/>
+      <c r="T83" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="42"/>
-      <c r="V83" s="50" t="s">
+      <c r="U83" s="19"/>
+      <c r="V83" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="50"/>
+      <c r="W83" s="88"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="72" t="s">
+      <c r="B84" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72" t="s">
+      <c r="C84" s="57"/>
+      <c r="D84" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72" t="s">
+      <c r="E84" s="57"/>
+      <c r="F84" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="72"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="39" t="s">
+      <c r="G84" s="57"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="51"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="51" t="s">
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="81"/>
+      <c r="O84" s="82"/>
+      <c r="P84" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="Q84" s="52"/>
-      <c r="R84" s="23" t="s">
+      <c r="Q84" s="82"/>
+      <c r="R84" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="23" t="s">
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W84" s="24"/>
+      <c r="W84" s="22"/>
       <c r="X84" s="9"/>
     </row>
     <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6359,44 +6482,44 @@
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="18" t="s">
+      <c r="C87" s="35"/>
+      <c r="D87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="18" t="s">
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="18" t="s">
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="19"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="18" t="s">
+      <c r="K87" s="41"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N87" s="19"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="18" t="s">
+      <c r="N87" s="41"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="18" t="s">
+      <c r="Q87" s="41"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T87" s="19"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="12" t="s">
+      <c r="T87" s="41"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="13"/>
+      <c r="W87" s="35"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -6420,38 +6543,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="68"/>
-      <c r="D88" s="69" t="s">
+      <c r="C88" s="49"/>
+      <c r="D88" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="70"/>
-      <c r="F88" s="32" t="s">
+      <c r="E88" s="60"/>
+      <c r="F88" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="56" t="s">
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="61"/>
+      <c r="T88" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="57"/>
-      <c r="V88" s="58" t="s">
+      <c r="U88" s="63"/>
+      <c r="V88" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="W88" s="59"/>
+      <c r="W88" s="65"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -6473,66 +6596,743 @@
       <c r="AV88" s="9"/>
       <c r="AW88" s="9"/>
     </row>
+    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="M91" s="52"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+    </row>
+    <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18">
+        <v>5</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+    </row>
+    <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="O93" s="18"/>
+    </row>
+    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="M96" s="52"/>
+      <c r="N96" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="O96" s="52"/>
+      <c r="P96" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q96" s="52"/>
+      <c r="R96" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="S96" s="52"/>
+      <c r="T96" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="U96" s="18"/>
+    </row>
+    <row r="97" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18">
+        <v>5</v>
+      </c>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="S97" s="18"/>
+      <c r="T97" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="U97" s="18"/>
+    </row>
+    <row r="98" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="S98" s="18"/>
+      <c r="T98" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="U98" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="562">
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
+  <mergeCells count="613">
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="T97:U97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="T98:U98"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="AC61:AD61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="AC77:AD77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
     <mergeCell ref="AA37:AB37"/>
     <mergeCell ref="T69:U69"/>
     <mergeCell ref="V69:W69"/>
@@ -6557,486 +7357,78 @@
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="AC77:AD77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="AC61:AD61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/src/Solution Files/Keyboard Designs.xlsx
+++ b/src/Solution Files/Keyboard Designs.xlsx
@@ -2391,7 +2391,7 @@
   <dimension ref="A2:AW98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="U94" sqref="U94"/>
+      <selection activeCell="Y87" sqref="Y87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
